--- a/output/covid_trends_split.xlsx
+++ b/output/covid_trends_split.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\GitHub\nexus_countries\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFAC9F-64E3-47B5-A32E-703A6216484D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101FCD1-F6A8-40BD-B085-6BE0577DB63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangladesh" sheetId="2" r:id="rId1"/>
@@ -955,13 +955,13 @@
                   <c:v>28044435.69689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520972254.316145</c:v>
+                  <c:v>523438176.83614498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>329508207.72447002</c:v>
+                  <c:v>341674455.31193501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36063.565020000002</c:v>
+                  <c:v>1800712.1230200001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,16 +1044,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211974</c:v>
+                  <c:v>855240.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44387</c:v>
+                  <c:v>23408139.940000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38642845.055200003</c:v>
+                  <c:v>51846629.642664999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1775472.858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,25 +1430,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>505563872.67623299</c:v>
+                  <c:v>505591419.25474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>319098837.34275502</c:v>
+                  <c:v>326856694.54009902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300570163.35660702</c:v>
+                  <c:v>313450069.35024899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>347604220.61711699</c:v>
+                  <c:v>361465117.02452701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302194517.67234498</c:v>
+                  <c:v>312278996.30921203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323839272.11089402</c:v>
+                  <c:v>340170241.399629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>509589006.42762101</c:v>
+                  <c:v>528051323.54612303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,25 +1508,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>279098203.89422601</c:v>
+                  <c:v>317006646.45852798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489637172.10528803</c:v>
+                  <c:v>537404618.37493098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>445915389.680116</c:v>
+                  <c:v>472485864.26736599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>567228340.50700605</c:v>
+                  <c:v>617785324.77563298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>468259039.92225701</c:v>
+                  <c:v>520248216.28679001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424177286.90290999</c:v>
+                  <c:v>452256177.74260598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475629892.81588399</c:v>
+                  <c:v>546226056.51473904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,25 +1589,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>198974185.268502</c:v>
+                  <c:v>238498801.54809099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>570131687.12648296</c:v>
+                  <c:v>662544523.42203403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319025750.74596304</c:v>
+                  <c:v>341982799.43113399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>323232912.87129897</c:v>
+                  <c:v>355735087.58247304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>981171992.41813207</c:v>
+                  <c:v>1049201710.3503821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>811979572.88866007</c:v>
+                  <c:v>892523921.57473099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241589745.937197</c:v>
+                  <c:v>260355466.88627201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,25 +1691,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>505563872.67623299</c:v>
+                  <c:v>505591419.25474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>319098837.34275502</c:v>
+                  <c:v>326856694.54009902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300570163.35660702</c:v>
+                  <c:v>313450069.35024899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>347604220.61711699</c:v>
+                  <c:v>361465117.02452701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302194517.67234498</c:v>
+                  <c:v>312278996.30921203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323839272.11089402</c:v>
+                  <c:v>340170241.399629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>509589006.42762101</c:v>
+                  <c:v>528051323.54612303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,25 +1777,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>279098203.89422601</c:v>
+                  <c:v>317006646.45852798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489637172.10528803</c:v>
+                  <c:v>537404618.37493098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>445915389.680116</c:v>
+                  <c:v>472485864.26736599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>567228340.50700605</c:v>
+                  <c:v>617785324.77563298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>468259039.92225701</c:v>
+                  <c:v>520248216.28679001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424177286.90290999</c:v>
+                  <c:v>452256177.74260598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475629892.81588399</c:v>
+                  <c:v>546226056.51473904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,25 +1863,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>198974185.268502</c:v>
+                  <c:v>238498801.54809099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>570131687.12648296</c:v>
+                  <c:v>662544523.42203403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>318919151.35098302</c:v>
+                  <c:v>341876200.03615397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>294976503.17440897</c:v>
+                  <c:v>326835411.53558302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>460155351.101987</c:v>
+                  <c:v>502355393.57423699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>443828520.10899001</c:v>
+                  <c:v>499002836.62013102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241553682.372177</c:v>
+                  <c:v>256779281.90525201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,19 +2290,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>78320.537482824002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2402277.13</c:v>
+                  <c:v>3119397.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1170979.8899999999</c:v>
+                  <c:v>1439899.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6628827.9199999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>73647.381083706001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,19 +2382,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>78320.537482824002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1420151.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>876013.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104244.92</c:v>
+                  <c:v>218548.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>73647.381083706001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,25 +2771,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>346027166.81370902</c:v>
+                  <c:v>368871089.60947299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53146274.3884684</c:v>
+                  <c:v>58643807.309863999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106603037.660592</c:v>
+                  <c:v>116396943.951213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129738780.74948999</c:v>
+                  <c:v>140628309.37798801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49221381.568255998</c:v>
+                  <c:v>63803583.679472402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137865682.470157</c:v>
+                  <c:v>145937499.56395501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69294979.238831207</c:v>
+                  <c:v>74012391.537877396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,25 +2849,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30435638.041625701</c:v>
+                  <c:v>36422005.478449799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171926244.93495399</c:v>
+                  <c:v>192646767.679129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59326424.1764974</c:v>
+                  <c:v>68638774.564672798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82881153.133480996</c:v>
+                  <c:v>106266932.141978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145697341.49087101</c:v>
+                  <c:v>161057431.36010799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73952611.656604499</c:v>
+                  <c:v>82039950.4511628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154814667.16692999</c:v>
+                  <c:v>176229399.59226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,25 +2930,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50283998.2445141</c:v>
+                  <c:v>58214545.7448835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>511730792.902991</c:v>
+                  <c:v>558618857.46208096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103407957.97383501</c:v>
+                  <c:v>120498612.67751166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193393644.25747401</c:v>
+                  <c:v>201983633.29966399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121336252.000081</c:v>
+                  <c:v>145728065.27498198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400728359.11035305</c:v>
+                  <c:v>445801708.25443506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45175990.782023601</c:v>
+                  <c:v>50029388.694670506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,25 +3032,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>346027166.81370902</c:v>
+                  <c:v>368871089.60947299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53146274.3884684</c:v>
+                  <c:v>58643807.309863999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106603037.660592</c:v>
+                  <c:v>116396943.951213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129738780.74948999</c:v>
+                  <c:v>140628309.37798801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49221381.568255998</c:v>
+                  <c:v>63803583.679472402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137865682.470157</c:v>
+                  <c:v>145937499.56395501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69294979.238831207</c:v>
+                  <c:v>74012391.537877396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,25 +3118,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30435638.041625701</c:v>
+                  <c:v>36422005.478449799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171926244.93495399</c:v>
+                  <c:v>192646767.679129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59326424.1764974</c:v>
+                  <c:v>68638774.564672798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82881153.133480996</c:v>
+                  <c:v>106266932.141978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145697341.49087101</c:v>
+                  <c:v>161057431.36010799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73952611.656604499</c:v>
+                  <c:v>82039950.4511628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154814667.16692999</c:v>
+                  <c:v>176229399.59226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,25 +3204,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50283998.2445141</c:v>
+                  <c:v>58214545.7448835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>511730792.902991</c:v>
+                  <c:v>558618857.46208096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103407957.97383501</c:v>
+                  <c:v>120341971.60254601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190991367.12747401</c:v>
+                  <c:v>197444085.039664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120165272.110081</c:v>
+                  <c:v>143412151.494982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>393995286.27035302</c:v>
+                  <c:v>438954331.41443503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45175990.782023601</c:v>
+                  <c:v>49882093.932503097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3631,19 +3631,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>517331.48849999998</c:v>
+                  <c:v>5784826.8715000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57940703.210000001</c:v>
+                  <c:v>73915937.020999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14844256.449999999</c:v>
+                  <c:v>30099943.451439999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15938183.236</c:v>
+                  <c:v>39462209.144000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9313554.3890000004</c:v>
+                  <c:v>9914466.2135000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,19 +3723,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>517331.48849999998</c:v>
+                  <c:v>1972416.7194999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>69954124.995000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1120500</c:v>
+                  <c:v>26164561.064440001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5105693.7699999996</c:v>
+                  <c:v>20174767.995000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9278543.3890000004</c:v>
+                  <c:v>9879455.2135000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,25 +4112,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>175892923.19809899</c:v>
+                  <c:v>199950014.36722401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94927076.421856001</c:v>
+                  <c:v>132974882.321876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166889841.00760999</c:v>
+                  <c:v>205644778.57347199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132905210.547674</c:v>
+                  <c:v>142967766.198172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162406499.80929101</c:v>
+                  <c:v>183794730.25012901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248003735.95678601</c:v>
+                  <c:v>303267106.92301899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173287798.05994901</c:v>
+                  <c:v>212975339.216333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,25 +4190,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>112869121.387015</c:v>
+                  <c:v>184032632.59975901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137422471.18359399</c:v>
+                  <c:v>201195510.91833499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158242303.02468801</c:v>
+                  <c:v>205532945.78207001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257650527.32066599</c:v>
+                  <c:v>295310784.44319999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173742658.277343</c:v>
+                  <c:v>229186990.03247201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147228932.71075001</c:v>
+                  <c:v>182442011.96989799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>256069437.19435501</c:v>
+                  <c:v>313193870.94041401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,25 +4271,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>276262598.46399498</c:v>
+                  <c:v>319466918.26223499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249294474.069309</c:v>
+                  <c:v>316035913.80086899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628352058.92966902</c:v>
+                  <c:v>698518652.85528493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>333731324.15035295</c:v>
+                  <c:v>458198924.95316303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145392391.07681599</c:v>
+                  <c:v>201879282.04798502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223126553.76727501</c:v>
+                  <c:v>321958264.322689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151113071.49105901</c:v>
+                  <c:v>176011458.645347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,25 +4373,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>175892923.19809899</c:v>
+                  <c:v>199950014.36722401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94927076.421856001</c:v>
+                  <c:v>132974882.321876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166889841.00760999</c:v>
+                  <c:v>205644778.57347199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132905210.547674</c:v>
+                  <c:v>142967766.198172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162406499.80929101</c:v>
+                  <c:v>183794730.25012901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248003735.95678601</c:v>
+                  <c:v>303267106.92301899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173287798.05994901</c:v>
+                  <c:v>212975339.216333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4459,25 +4459,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>112869121.387015</c:v>
+                  <c:v>184032632.59975901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137422471.18359399</c:v>
+                  <c:v>201195510.91833499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158242303.02468801</c:v>
+                  <c:v>205532945.78207001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257650527.32066599</c:v>
+                  <c:v>295310784.44319999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173742658.277343</c:v>
+                  <c:v>229186990.03247201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147228932.71075001</c:v>
+                  <c:v>182442011.96989799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>256069437.19435501</c:v>
+                  <c:v>313193870.94041401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,25 +4545,25 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>276262598.46399498</c:v>
+                  <c:v>319466918.26223499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249294474.069309</c:v>
+                  <c:v>316035913.80086899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>627317395.95266902</c:v>
+                  <c:v>690761409.26428497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275790620.94035298</c:v>
+                  <c:v>314328862.937163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129427634.626816</c:v>
+                  <c:v>145614777.532105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202082676.76127499</c:v>
+                  <c:v>262321287.183689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132520973.71305899</c:v>
+                  <c:v>156217537.21834701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8683,7 +8683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8760,51 +8762,51 @@
       </c>
       <c r="B3" s="2">
         <f t="array" ref="B3">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>144606282.394757</v>
+        <v>145417010.27485201</v>
       </c>
       <c r="C3" s="2">
         <f t="array" ref="C3">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>90570676.269484207</v>
+        <v>91591729.750984207</v>
       </c>
       <c r="D3" s="2">
         <f t="array" ref="D3">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>605652633.454548</v>
+        <v>606721425.44354796</v>
       </c>
       <c r="E3" s="2">
         <f t="array" ref="E3">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>110210866.092125</v>
+        <v>113769080.43607999</v>
       </c>
       <c r="F3" s="2">
         <f t="array" ref="F3">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>113924508.97901</v>
+        <v>117594301.14651</v>
       </c>
       <c r="G3" s="2">
         <f t="array" ref="G3">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>843419864.30421102</v>
+        <v>846809285.35371006</v>
       </c>
       <c r="H3" s="2">
         <f t="array" ref="H3">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>150760660.269988</v>
+        <v>157484910.52542999</v>
       </c>
       <c r="I3" s="2">
         <f t="array" ref="I3">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>114410205.899774</v>
+        <v>128276610.231993</v>
       </c>
       <c r="J3" s="2">
         <f t="array" ref="J3">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>610784152.21241796</v>
+        <v>614507735.53959703</v>
       </c>
       <c r="K3" s="2">
         <f t="array" ref="K3">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>155487509.480526</v>
+        <v>157454461.79298201</v>
       </c>
       <c r="L3" s="2">
         <f t="array" ref="L3">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>266200295.66760701</v>
+        <v>267454245.24760699</v>
       </c>
       <c r="M3" s="2">
         <f t="array" ref="M3">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>1299821484.5438199</v>
+        <v>1595982566.7744601</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -8813,51 +8815,51 @@
       </c>
       <c r="B4" s="2">
         <f t="array" ref="B4">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>79830375.288790196</v>
+        <v>91176703.182990193</v>
       </c>
       <c r="C4" s="2">
         <f t="array" ref="C4">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>138975027.84261</v>
+        <v>150591434.70316499</v>
       </c>
       <c r="D4" s="2">
         <f t="array" ref="D4">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>898525079.94032896</v>
+        <v>914554900.76762903</v>
       </c>
       <c r="E4" s="2">
         <f t="array" ref="E4">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>179844555.881084</v>
+        <v>194444401.39948401</v>
       </c>
       <c r="F4" s="2">
         <f t="array" ref="F4">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>176529281.897717</v>
+        <v>195908870.40121701</v>
       </c>
       <c r="G4" s="2">
         <f t="array" ref="G4">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>1104744175.80235</v>
+        <v>1125832551.06405</v>
       </c>
       <c r="H4" s="2">
         <f t="array" ref="H4">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>140713939.62705299</v>
+        <v>162905304.46775499</v>
       </c>
       <c r="I4" s="2">
         <f t="array" ref="I4">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>227468365.094345</v>
+        <v>242362875.16312999</v>
       </c>
       <c r="J4" s="2">
         <f t="array" ref="J4">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>485385519.66246903</v>
+        <v>500840068.96736902</v>
       </c>
       <c r="K4" s="2">
         <f t="array" ref="K4">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>199197294.40430301</v>
+        <v>218326865.42761001</v>
       </c>
       <c r="L4" s="2">
         <f t="array" ref="L4">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>176130490.521319</v>
+        <v>190047520.78542599</v>
       </c>
       <c r="M4" s="2">
         <f t="array" ref="M4">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>1240636621.2651601</v>
+        <v>1437218483.5238299</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -8866,31 +8868,31 @@
       </c>
       <c r="B5" s="2">
         <f t="array" ref="B5">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>56912526.347842999</v>
+        <v>68596462.191507995</v>
       </c>
       <c r="C5" s="2">
         <f t="array" ref="C5">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>161822001.28244999</v>
+        <v>185658118.530049</v>
       </c>
       <c r="D5" s="2">
         <f t="array" ref="D5">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>642626073.45243096</v>
+        <v>661743721.54751098</v>
       </c>
       <c r="E5" s="2">
         <f t="array" ref="E5">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>93524801.954251707</v>
+        <v>102869578.482252</v>
       </c>
       <c r="F5" s="2">
         <f t="array" ref="F5">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>173474266.94615799</v>
+        <v>189171004.55916801</v>
       </c>
       <c r="G5" s="2">
         <f t="array" ref="G5">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>1155924628.1793699</v>
+        <v>1242202238.88234</v>
       </c>
       <c r="H5" s="2">
         <f t="array" ref="H5">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>71463065.697530597</v>
+        <v>76581310.248530596</v>
       </c>
       <c r="I5" s="2" t="e">
         <f t="array" ref="I5">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
@@ -8976,51 +8978,51 @@
       </c>
       <c r="B9" s="2">
         <f t="array" ref="B9">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>505563872.67623299</v>
+        <v>505591419.25474</v>
       </c>
       <c r="C9" s="2">
         <f t="array" ref="C9">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>319098837.34275502</v>
+        <v>326856694.54009902</v>
       </c>
       <c r="D9" s="2">
         <f t="array" ref="D9">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>300570163.35660702</v>
+        <v>313450069.35024899</v>
       </c>
       <c r="E9" s="2">
         <f t="array" ref="E9">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>347604220.61711699</v>
+        <v>361465117.02452701</v>
       </c>
       <c r="F9" s="2">
         <f t="array" ref="F9">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>302194517.67234498</v>
+        <v>312278996.30921203</v>
       </c>
       <c r="G9" s="2">
         <f t="array" ref="G9">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>323839272.11089402</v>
+        <v>340170241.399629</v>
       </c>
       <c r="H9" s="2">
         <f t="array" ref="H9">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>509589006.42762101</v>
+        <v>528051323.54612303</v>
       </c>
       <c r="I9" s="2">
         <f t="array" ref="I9">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>371579085.44090402</v>
+        <v>413781294.17984599</v>
       </c>
       <c r="J9" s="2">
         <f t="array" ref="J9">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>424151696.62339199</v>
+        <v>444562321.58917999</v>
       </c>
       <c r="K9" s="2">
         <f t="array" ref="K9">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>385475290.254022</v>
+        <v>398659939.12742501</v>
       </c>
       <c r="L9" s="2">
         <f t="array" ref="L9">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>438640598.49367899</v>
+        <v>455488347.170344</v>
       </c>
       <c r="M9" s="2">
         <f t="array" ref="M9">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>424413320.52318197</v>
+        <v>477382825.82086402</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -9029,51 +9031,51 @@
       </c>
       <c r="B10" s="2">
         <f t="array" ref="B10">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>279098203.89422601</v>
+        <v>317006646.45852798</v>
       </c>
       <c r="C10" s="2">
         <f t="array" ref="C10">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>489637172.10528803</v>
+        <v>537404618.37493098</v>
       </c>
       <c r="D10" s="2">
         <f t="array" ref="D10">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>445915389.680116</v>
+        <v>472485864.26736599</v>
       </c>
       <c r="E10" s="2">
         <f t="array" ref="E10">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>567228340.50700605</v>
+        <v>617785324.77563298</v>
       </c>
       <c r="F10" s="2">
         <f t="array" ref="F10">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>468259039.92225701</v>
+        <v>520248216.28679001</v>
       </c>
       <c r="G10" s="2">
         <f t="array" ref="G10">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>424177286.90290999</v>
+        <v>452256177.74260598</v>
       </c>
       <c r="H10" s="2">
         <f t="array" ref="H10">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>475629892.81588399</v>
+        <v>546226056.51473904</v>
       </c>
       <c r="I10" s="2">
         <f t="array" ref="I10">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>738767021.73351598</v>
+        <v>781788854.29525101</v>
       </c>
       <c r="J10" s="2">
         <f t="array" ref="J10">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>337070126.87792099</v>
+        <v>362330058.56225097</v>
       </c>
       <c r="K10" s="2">
         <f t="array" ref="K10">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>493837962.51448399</v>
+        <v>552783159.58863497</v>
       </c>
       <c r="L10" s="2">
         <f t="array" ref="L10">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>290225011.13870102</v>
+        <v>323660710.81143099</v>
       </c>
       <c r="M10" s="2">
         <f t="array" ref="M10">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>405088478.88339102</v>
+        <v>429894057.28486401</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -9082,31 +9084,31 @@
       </c>
       <c r="B11" s="2">
         <f t="array" ref="B11">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>198974185.268502</v>
+        <v>238498801.54809099</v>
       </c>
       <c r="C11" s="2">
         <f t="array" ref="C11">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>570131687.12648296</v>
+        <v>662544523.42203403</v>
       </c>
       <c r="D11" s="2">
         <f t="array" ref="D11">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>318919151.35098302</v>
+        <v>341876200.03615397</v>
       </c>
       <c r="E11" s="2">
         <f t="array" ref="E11">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>294976503.17440897</v>
+        <v>326835411.53558302</v>
       </c>
       <c r="F11" s="2">
         <f t="array" ref="F11">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>460155351.101987</v>
+        <v>502355393.57423699</v>
       </c>
       <c r="G11" s="2">
         <f t="array" ref="G11">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>443828520.10899001</v>
+        <v>499002836.62013102</v>
       </c>
       <c r="H11" s="2">
         <f t="array" ref="H11">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>241553682.372177</v>
+        <v>256779281.90525201</v>
       </c>
       <c r="I11" s="2" t="e">
         <f t="array" ref="I11">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
@@ -9314,15 +9316,15 @@
       </c>
       <c r="F17" s="2">
         <f t="array" ref="F17">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>520972254.316145</v>
+        <v>523438176.83614498</v>
       </c>
       <c r="G17" s="2">
         <f t="array" ref="G17">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>329508207.72447002</v>
+        <v>341674455.31193501</v>
       </c>
       <c r="H17" s="2">
         <f t="array" ref="H17">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>36063.565020000002</v>
+        <v>1800712.1230200001</v>
       </c>
       <c r="I17" s="2" t="e">
         <f t="array" ref="I17">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
@@ -9534,19 +9536,19 @@
       </c>
       <c r="E23" s="2">
         <f t="array" ref="E23">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>211974</v>
+        <v>855240.35</v>
       </c>
       <c r="F23" s="2">
         <f t="array" ref="F23">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>44387</v>
+        <v>23408139.940000001</v>
       </c>
       <c r="G23" s="2">
         <f t="array" ref="G23">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>38642845.055200003</v>
+        <v>51846629.642664999</v>
       </c>
       <c r="H23" s="2">
         <f t="array" ref="H23">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>1775472.858</v>
       </c>
       <c r="I23" s="2" t="e">
         <f t="array" ref="I23">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
@@ -9637,51 +9639,51 @@
       </c>
       <c r="B27" s="2">
         <f>B15+B9+B21</f>
-        <v>505563872.67623299</v>
+        <v>505591419.25474</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:G27" si="0">C15+C9+C21</f>
-        <v>319098837.34275502</v>
+        <v>326856694.54009902</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>300570163.35660702</v>
+        <v>313450069.35024899</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>347604220.61711699</v>
+        <v>361465117.02452701</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>302194517.67234498</v>
+        <v>312278996.30921203</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>323839272.11089402</v>
+        <v>340170241.399629</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ref="H27:I27" si="1">H15+H9+H21</f>
-        <v>509589006.42762101</v>
+        <v>528051323.54612303</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="1"/>
-        <v>371579085.44090402</v>
+        <v>413781294.17984599</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ref="J27:M27" si="2">J15+J9+J21</f>
-        <v>424151696.62339199</v>
+        <v>444562321.58917999</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>385475290.254022</v>
+        <v>398659939.12742501</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>438640598.49367899</v>
+        <v>455488347.170344</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="2"/>
-        <v>424413320.52318197</v>
+        <v>477382825.82086402</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -9690,51 +9692,51 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:G29" si="3">B16+B10+B22</f>
-        <v>279098203.89422601</v>
+        <v>317006646.45852798</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
-        <v>489637172.10528803</v>
+        <v>537404618.37493098</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="3"/>
-        <v>445915389.680116</v>
+        <v>472485864.26736599</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="3"/>
-        <v>567228340.50700605</v>
+        <v>617785324.77563298</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>468259039.92225701</v>
+        <v>520248216.28679001</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="3"/>
-        <v>424177286.90290999</v>
+        <v>452256177.74260598</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:I28" si="4">H16+H10+H22</f>
-        <v>475629892.81588399</v>
+        <v>546226056.51473904</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="4"/>
-        <v>738767021.73351598</v>
+        <v>781788854.29525101</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ref="J28:M28" si="5">J16+J10+J22</f>
-        <v>337070126.87792099</v>
+        <v>362330058.56225097</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="5"/>
-        <v>493837962.51448399</v>
+        <v>552783159.58863497</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="5"/>
-        <v>290225011.13870102</v>
+        <v>323660710.81143099</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="5"/>
-        <v>405088478.88339102</v>
+        <v>429894057.28486401</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -9743,31 +9745,31 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="3"/>
-        <v>198974185.268502</v>
+        <v>238498801.54809099</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="3"/>
-        <v>570131687.12648296</v>
+        <v>662544523.42203403</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="3"/>
-        <v>319025750.74596304</v>
+        <v>341982799.43113399</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="3"/>
-        <v>323232912.87129897</v>
+        <v>355735087.58247304</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>981171992.41813207</v>
+        <v>1049201710.3503821</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="3"/>
-        <v>811979572.88866007</v>
+        <v>892523921.57473099</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:I29" si="6">H17+H11+H23</f>
-        <v>241589745.937197</v>
+        <v>260355466.88627201</v>
       </c>
       <c r="I29" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9809,7 +9811,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9891,7 +9893,7 @@
       </c>
       <c r="C3" s="2">
         <f t="array" ref="C3">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>14960704.597866099</v>
+        <v>15596694.8826911</v>
       </c>
       <c r="D3" s="2">
         <f t="array" ref="D3">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
@@ -9899,31 +9901,31 @@
       </c>
       <c r="E3" s="2">
         <f t="array" ref="E3">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>38439587.479659498</v>
+        <v>45639438.326254599</v>
       </c>
       <c r="F3" s="2">
         <f t="array" ref="F3">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>16833672.4400835</v>
+        <v>22540317.4400835</v>
       </c>
       <c r="G3" s="2">
         <f t="array" ref="G3">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>119180407.955267</v>
+        <v>120727827.565267</v>
       </c>
       <c r="H3" s="2">
         <f t="array" ref="H3">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>23923865.190374602</v>
+        <v>24573690.190374602</v>
       </c>
       <c r="I3" s="2">
         <f t="array" ref="I3">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>21942597.5143556</v>
+        <v>23581810.614355601</v>
       </c>
       <c r="J3" s="2">
         <f t="array" ref="J3">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>81003266.176168397</v>
+        <v>84393908.032488406</v>
       </c>
       <c r="K3" s="2">
         <f t="array" ref="K3">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>36213337.064119898</v>
+        <v>37224701.064119898</v>
       </c>
       <c r="L3" s="2">
         <f t="array" ref="L3">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
@@ -9931,7 +9933,7 @@
       </c>
       <c r="M3" s="2">
         <f t="array" ref="M3">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>701798662.06577003</v>
+        <v>787198100.98885</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -9940,51 +9942,51 @@
       </c>
       <c r="B4" s="2">
         <f t="array" ref="B4">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>21275757.4089498</v>
+        <v>23883724.493595801</v>
       </c>
       <c r="C4" s="2">
         <f t="array" ref="C4">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>48397329.684699804</v>
+        <v>51235637.545699798</v>
       </c>
       <c r="D4" s="2">
         <f t="array" ref="D4">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>54710561.862952098</v>
+        <v>57972299.311952099</v>
       </c>
       <c r="E4" s="2">
         <f t="array" ref="E4">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>24556399.542871699</v>
+        <v>34487814.843724698</v>
       </c>
       <c r="F4" s="2">
         <f t="array" ref="F4">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>49828372.221678399</v>
+        <v>56897832.6856784</v>
       </c>
       <c r="G4" s="2">
         <f t="array" ref="G4">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>63929632.586408399</v>
+        <v>67868128.624408394</v>
       </c>
       <c r="H4" s="2">
         <f t="array" ref="H4">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>53449258.048393197</v>
+        <v>58511913.721902199</v>
       </c>
       <c r="I4" s="2">
         <f t="array" ref="I4">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>24130870.099397998</v>
+        <v>30588567.779398002</v>
       </c>
       <c r="J4" s="2">
         <f t="array" ref="J4">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>96607111.326185003</v>
+        <v>101228949.399543</v>
       </c>
       <c r="K4" s="2">
         <f t="array" ref="K4">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>46430307.1343982</v>
+        <v>49586088.025774203</v>
       </c>
       <c r="L4" s="2">
         <f t="array" ref="L4">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>23916756.340519998</v>
+        <v>28906710.74952</v>
       </c>
       <c r="M4" s="2">
         <f t="array" ref="M4">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>769125264.14925802</v>
+        <v>820908303.56791306</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -9993,31 +9995,31 @@
       </c>
       <c r="B5" s="2">
         <f t="array" ref="B5">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>35150574.032296397</v>
+        <v>38174179.423296399</v>
       </c>
       <c r="C5" s="2">
         <f t="array" ref="C5">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>144052491.24884301</v>
+        <v>148568250.85584301</v>
       </c>
       <c r="D5" s="2">
         <f t="array" ref="D5">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>95362354.302996993</v>
+        <v>101640812.234488</v>
       </c>
       <c r="E5" s="2">
         <f t="array" ref="E5">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>56587778.3199775</v>
+        <v>64078400.585977502</v>
       </c>
       <c r="F5" s="2">
         <f t="array" ref="F5">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>41096425.271394201</v>
+        <v>50664167.011394203</v>
       </c>
       <c r="G5" s="2">
         <f t="array" ref="G5">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>340596137.55089098</v>
+        <v>363128071.88261598</v>
       </c>
       <c r="H5" s="2">
         <f t="array" ref="H5">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>15596863.2241842</v>
+        <v>16561917.4961692</v>
       </c>
       <c r="I5" s="2" t="e">
         <f t="array" ref="I5">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
@@ -10103,51 +10105,51 @@
       </c>
       <c r="B9" s="2">
         <f t="array" ref="B9">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>346027166.81370902</v>
+        <v>368871089.60947299</v>
       </c>
       <c r="C9" s="2">
         <f t="array" ref="C9">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>53146274.3884684</v>
+        <v>58643807.309863999</v>
       </c>
       <c r="D9" s="2">
         <f t="array" ref="D9">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>106603037.660592</v>
+        <v>116396943.951213</v>
       </c>
       <c r="E9" s="2">
         <f t="array" ref="E9">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>129738780.74948999</v>
+        <v>140628309.37798801</v>
       </c>
       <c r="F9" s="2">
         <f t="array" ref="F9">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>49221381.568255998</v>
+        <v>63803583.679472402</v>
       </c>
       <c r="G9" s="2">
         <f t="array" ref="G9">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>137865682.470157</v>
+        <v>145937499.56395501</v>
       </c>
       <c r="H9" s="2">
         <f t="array" ref="H9">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>69294979.238831207</v>
+        <v>74012391.537877396</v>
       </c>
       <c r="I9" s="2">
         <f t="array" ref="I9">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>119015495.683688</v>
+        <v>119169556.307614</v>
       </c>
       <c r="J9" s="2">
         <f t="array" ref="J9">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>96999578.621270001</v>
+        <v>108511542.78688499</v>
       </c>
       <c r="K9" s="2">
         <f t="array" ref="K9">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>135554656.694323</v>
+        <v>140856325.45266399</v>
       </c>
       <c r="L9" s="2">
         <f t="array" ref="L9">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>170131048.08006999</v>
+        <v>175273946.62359101</v>
       </c>
       <c r="M9" s="2">
         <f t="array" ref="M9">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>104845840.88137899</v>
+        <v>114160168.975191</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -10156,51 +10158,51 @@
       </c>
       <c r="B10" s="2">
         <f t="array" ref="B10">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>30435638.041625701</v>
+        <v>36422005.478449799</v>
       </c>
       <c r="C10" s="2">
         <f t="array" ref="C10">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>171926244.93495399</v>
+        <v>192646767.679129</v>
       </c>
       <c r="D10" s="2">
         <f t="array" ref="D10">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>59326424.1764974</v>
+        <v>68638774.564672798</v>
       </c>
       <c r="E10" s="2">
         <f t="array" ref="E10">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>82881153.133480996</v>
+        <v>106266932.141978</v>
       </c>
       <c r="F10" s="2">
         <f t="array" ref="F10">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>145697341.49087101</v>
+        <v>161057431.36010799</v>
       </c>
       <c r="G10" s="2">
         <f t="array" ref="G10">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>73952611.656604499</v>
+        <v>82039950.4511628</v>
       </c>
       <c r="H10" s="2">
         <f t="array" ref="H10">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>154814667.16692999</v>
+        <v>176229399.59226</v>
       </c>
       <c r="I10" s="2">
         <f t="array" ref="I10">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>130884571.17620701</v>
+        <v>154577869.78143099</v>
       </c>
       <c r="J10" s="2">
         <f t="array" ref="J10">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>115684830.165713</v>
+        <v>130157611.255676</v>
       </c>
       <c r="K10" s="2">
         <f t="array" ref="K10">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>173799071.11767501</v>
+        <v>187631168.369948</v>
       </c>
       <c r="L10" s="2">
         <f t="array" ref="L10">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>88898286.476321802</v>
+        <v>110693871.22057299</v>
       </c>
       <c r="M10" s="2">
         <f t="array" ref="M10">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>114904159.015459</v>
+        <v>119048852.545158</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -10209,31 +10211,31 @@
       </c>
       <c r="B11" s="2">
         <f t="array" ref="B11">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>50283998.2445141</v>
+        <v>58214545.7448835</v>
       </c>
       <c r="C11" s="2">
         <f t="array" ref="C11">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>511730792.902991</v>
+        <v>558618857.46208096</v>
       </c>
       <c r="D11" s="2">
         <f t="array" ref="D11">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>103407957.97383501</v>
+        <v>120341971.60254601</v>
       </c>
       <c r="E11" s="2">
         <f t="array" ref="E11">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>190991367.12747401</v>
+        <v>197444085.039664</v>
       </c>
       <c r="F11" s="2">
         <f t="array" ref="F11">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>120165272.110081</v>
+        <v>143412151.494982</v>
       </c>
       <c r="G11" s="2">
         <f t="array" ref="G11">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>393995286.27035302</v>
+        <v>438954331.41443503</v>
       </c>
       <c r="H11" s="2">
         <f t="array" ref="H11">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>45175990.782023601</v>
+        <v>49882093.932503097</v>
       </c>
       <c r="I11" s="2" t="e">
         <f t="array" ref="I11">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
@@ -10433,15 +10435,15 @@
       </c>
       <c r="D17" s="2">
         <f t="array" ref="D17">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>78320.537482824002</v>
       </c>
       <c r="E17" s="2">
         <f t="array" ref="E17">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>2402277.13</v>
+        <v>3119397.13</v>
       </c>
       <c r="F17" s="2">
         <f t="array" ref="F17">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>1170979.8899999999</v>
+        <v>1439899.89</v>
       </c>
       <c r="G17" s="2">
         <f t="array" ref="G17">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
@@ -10449,7 +10451,7 @@
       </c>
       <c r="H17" s="2">
         <f t="array" ref="H17">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>73647.381083706001</v>
       </c>
       <c r="I17" s="2" t="e">
         <f t="array" ref="I17">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
@@ -10657,23 +10659,23 @@
       </c>
       <c r="D23" s="2">
         <f t="array" ref="D23">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>78320.537482824002</v>
       </c>
       <c r="E23" s="2">
         <f t="array" ref="E23">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>1420151.13</v>
       </c>
       <c r="F23" s="2">
         <f t="array" ref="F23">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>876013.89</v>
       </c>
       <c r="G23" s="2">
         <f t="array" ref="G23">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>104244.92</v>
+        <v>218548.92</v>
       </c>
       <c r="H23" s="2">
         <f t="array" ref="H23">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>73647.381083706001</v>
       </c>
       <c r="I23" s="2" t="e">
         <f t="array" ref="I23">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
@@ -10764,51 +10766,51 @@
       </c>
       <c r="B27" s="2">
         <f>B15+B9+B21</f>
-        <v>346027166.81370902</v>
+        <v>368871089.60947299</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:M29" si="0">C15+C9+C21</f>
-        <v>53146274.3884684</v>
+        <v>58643807.309863999</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>106603037.660592</v>
+        <v>116396943.951213</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>129738780.74948999</v>
+        <v>140628309.37798801</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>49221381.568255998</v>
+        <v>63803583.679472402</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>137865682.470157</v>
+        <v>145937499.56395501</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>69294979.238831207</v>
+        <v>74012391.537877396</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>119015495.683688</v>
+        <v>119169556.307614</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>96999578.621270001</v>
+        <v>108511542.78688499</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>135554656.694323</v>
+        <v>140856325.45266399</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="0"/>
-        <v>170131048.08006999</v>
+        <v>175273946.62359101</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="0"/>
-        <v>104845840.88137899</v>
+        <v>114160168.975191</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -10817,51 +10819,51 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:G29" si="1">B16+B10+B22</f>
-        <v>30435638.041625701</v>
+        <v>36422005.478449799</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>171926244.93495399</v>
+        <v>192646767.679129</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>59326424.1764974</v>
+        <v>68638774.564672798</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>82881153.133480996</v>
+        <v>106266932.141978</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>145697341.49087101</v>
+        <v>161057431.36010799</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>73952611.656604499</v>
+        <v>82039950.4511628</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>154814667.16692999</v>
+        <v>176229399.59226</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>130884571.17620701</v>
+        <v>154577869.78143099</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>115684830.165713</v>
+        <v>130157611.255676</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>173799071.11767501</v>
+        <v>187631168.369948</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="0"/>
-        <v>88898286.476321802</v>
+        <v>110693871.22057299</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="0"/>
-        <v>114904159.015459</v>
+        <v>119048852.545158</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -10870,31 +10872,31 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="1"/>
-        <v>50283998.2445141</v>
+        <v>58214545.7448835</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>511730792.902991</v>
+        <v>558618857.46208096</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>103407957.97383501</v>
+        <v>120498612.67751166</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>193393644.25747401</v>
+        <v>201983633.29966399</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>121336252.000081</v>
+        <v>145728065.27498198</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>400728359.11035305</v>
+        <v>445801708.25443506</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>45175990.782023601</v>
+        <v>50029388.694670506</v>
       </c>
       <c r="I29" s="2" t="e">
         <f t="shared" si="0"/>
@@ -10934,8 +10936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6CE9A9-921B-42B1-8B4A-5A65EBDAC273}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11013,51 +11015,51 @@
       </c>
       <c r="B3" s="2">
         <f t="array" ref="B3">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>53887194.926298402</v>
+        <v>61930911.028381199</v>
       </c>
       <c r="C3" s="2">
         <f t="array" ref="C3">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>41869205.306224599</v>
+        <v>54507276.917097598</v>
       </c>
       <c r="D3" s="2">
         <f t="array" ref="D3">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>178528000.741687</v>
+        <v>202930725.52174699</v>
       </c>
       <c r="E3" s="2">
         <f t="array" ref="E3">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>66804800.092358999</v>
+        <v>72814188.361193001</v>
       </c>
       <c r="F3" s="2">
         <f t="array" ref="F3">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>84934686.758999601</v>
+        <v>105278875.996044</v>
       </c>
       <c r="G3" s="2">
         <f t="array" ref="G3">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>343485726.663333</v>
+        <v>376486835.93684798</v>
       </c>
       <c r="H3" s="2">
         <f t="array" ref="H3">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>69404493.342039198</v>
+        <v>86572025.706570193</v>
       </c>
       <c r="I3" s="2">
         <f t="array" ref="I3">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>53256911.399755403</v>
+        <v>71224852.010970399</v>
       </c>
       <c r="J3" s="2">
         <f t="array" ref="J3">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>376134508.422337</v>
+        <v>388459906.54964203</v>
       </c>
       <c r="K3" s="2">
         <f t="array" ref="K3">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>100096547.774205</v>
+        <v>103756850.419039</v>
       </c>
       <c r="L3" s="2">
         <f t="array" ref="L3">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>89515840.742890298</v>
+        <v>96831167.726745307</v>
       </c>
       <c r="M3" s="2">
         <f t="array" ref="M3">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A3=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>645742360.52361298</v>
+        <v>918246945.66511297</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -11066,51 +11068,51 @@
       </c>
       <c r="B4" s="2">
         <f t="array" ref="B4">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>34578994.053627104</v>
+        <v>57000789.081827097</v>
       </c>
       <c r="C4" s="2">
         <f t="array" ref="C4">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>60612523.597639099</v>
+        <v>82471360.279583097</v>
       </c>
       <c r="D4" s="2">
         <f t="array" ref="D4">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>169277421.68841499</v>
+        <v>202820368.67411101</v>
       </c>
       <c r="E4" s="2">
         <f t="array" ref="E4">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>129508029.82381099</v>
+        <v>150403238.823311</v>
       </c>
       <c r="F4" s="2">
         <f t="array" ref="F4">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>90863224.530978903</v>
+        <v>131279872.228644</v>
       </c>
       <c r="G4" s="2">
         <f t="array" ref="G4">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>203912399.71816599</v>
+        <v>226490160.85326701</v>
       </c>
       <c r="H4" s="2">
         <f t="array" ref="H4">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>102559844.073424</v>
+        <v>127309706.11884999</v>
       </c>
       <c r="I4" s="2">
         <f t="array" ref="I4">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>164132054.06640899</v>
+        <v>212841271.94750899</v>
       </c>
       <c r="J4" s="2">
         <f t="array" ref="J4">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>240836615.81053901</v>
+        <v>257896194.815303</v>
       </c>
       <c r="K4" s="2">
         <f t="array" ref="K4">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>167670720.54879799</v>
+        <v>185828478.965359</v>
       </c>
       <c r="L4" s="2">
         <f t="array" ref="L4">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>114823931.205116</v>
+        <v>137890114.136334</v>
       </c>
       <c r="M4" s="2">
         <f t="array" ref="M4">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A4=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>598832510.14852202</v>
+        <v>693703327.61546195</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -11119,31 +11121,31 @@
       </c>
       <c r="B5" s="2">
         <f t="array" ref="B5">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>84636813.258874506</v>
+        <v>98949116.628084496</v>
       </c>
       <c r="C5" s="2">
         <f t="array" ref="C5">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>109955577.585996</v>
+        <v>129545195.06619599</v>
       </c>
       <c r="D5" s="2">
         <f t="array" ref="D5">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>671063737.93479896</v>
+        <v>681644897.17079902</v>
       </c>
       <c r="E5" s="2">
         <f t="array" ref="E5">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>138626147.33723301</v>
+        <v>160089239.98673299</v>
       </c>
       <c r="F5" s="2">
         <f t="array" ref="F5">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>67687534.7839863</v>
+        <v>83409138.478186294</v>
       </c>
       <c r="G5" s="2">
         <f t="array" ref="G5">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>279884957.40045202</v>
+        <v>325655203.469652</v>
       </c>
       <c r="H5" s="2">
         <f t="array" ref="H5">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
-        <v>53076737.893378302</v>
+        <v>63500632.033958301</v>
       </c>
       <c r="I5" s="2" t="e">
         <f t="array" ref="I5">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A5=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$2,data!$A$1:$N$1,0))</f>
@@ -11229,51 +11231,51 @@
       </c>
       <c r="B9" s="2">
         <f t="array" ref="B9">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>175892923.19809899</v>
+        <v>199950014.36722401</v>
       </c>
       <c r="C9" s="2">
         <f t="array" ref="C9">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>94927076.421856001</v>
+        <v>132974882.321876</v>
       </c>
       <c r="D9" s="2">
         <f t="array" ref="D9">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>166889841.00760999</v>
+        <v>205644778.57347199</v>
       </c>
       <c r="E9" s="2">
         <f t="array" ref="E9">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>132905210.547674</v>
+        <v>142967766.198172</v>
       </c>
       <c r="F9" s="2">
         <f t="array" ref="F9">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>162406499.80929101</v>
+        <v>183794730.25012901</v>
       </c>
       <c r="G9" s="2">
         <f t="array" ref="G9">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>248003735.95678601</v>
+        <v>303267106.92301899</v>
       </c>
       <c r="H9" s="2">
         <f t="array" ref="H9">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>173287798.05994901</v>
+        <v>212975339.216333</v>
       </c>
       <c r="I9" s="2">
         <f t="array" ref="I9">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>114266011.88154</v>
+        <v>145514923.75263599</v>
       </c>
       <c r="J9" s="2">
         <f t="array" ref="J9">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>231171283.53332999</v>
+        <v>277076358.81079698</v>
       </c>
       <c r="K9" s="2">
         <f t="array" ref="K9">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>225414263.154917</v>
+        <v>248856535.54429901</v>
       </c>
       <c r="L9" s="2">
         <f t="array" ref="L9">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>212904605.99733001</v>
+        <v>240928573.85980201</v>
       </c>
       <c r="M9" s="2">
         <f t="array" ref="M9">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A9=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>146293361.50125301</v>
+        <v>189203790.796177</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -11282,51 +11284,51 @@
       </c>
       <c r="B10" s="2">
         <f t="array" ref="B10">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>112869121.387015</v>
+        <v>184032632.59975901</v>
       </c>
       <c r="C10" s="2">
         <f t="array" ref="C10">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>137422471.18359399</v>
+        <v>201195510.91833499</v>
       </c>
       <c r="D10" s="2">
         <f t="array" ref="D10">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>158242303.02468801</v>
+        <v>205532945.78207001</v>
       </c>
       <c r="E10" s="2">
         <f t="array" ref="E10">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>257650527.32066599</v>
+        <v>295310784.44319999</v>
       </c>
       <c r="F10" s="2">
         <f t="array" ref="F10">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>173742658.277343</v>
+        <v>229186990.03247201</v>
       </c>
       <c r="G10" s="2">
         <f t="array" ref="G10">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>147228932.71075001</v>
+        <v>182442011.96989799</v>
       </c>
       <c r="H10" s="2">
         <f t="array" ref="H10">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>256069437.19435501</v>
+        <v>313193870.94041401</v>
       </c>
       <c r="I10" s="2">
         <f t="array" ref="I10">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>352155518.35737801</v>
+        <v>434842342.02530003</v>
       </c>
       <c r="J10" s="2">
         <f t="array" ref="J10">INDEX(data!$A$2:$N$166,MATCH(J$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>148017553.16806099</v>
+        <v>183949327.60313699</v>
       </c>
       <c r="K10" s="2">
         <f t="array" ref="K10">INDEX(data!$A$2:$N$166,MATCH(K$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>377589165.31685901</v>
+        <v>445701958.89735699</v>
       </c>
       <c r="L10" s="2">
         <f t="array" ref="L10">INDEX(data!$A$2:$N$166,MATCH(L$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>273097405.21239901</v>
+        <v>343088587.36458403</v>
       </c>
       <c r="M10" s="2">
         <f t="array" ref="M10">INDEX(data!$A$2:$N$166,MATCH(M$2,IF($A10=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>135665903.681499</v>
+        <v>142936820.96344799</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -11335,31 +11337,31 @@
       </c>
       <c r="B11" s="2">
         <f t="array" ref="B11">INDEX(data!$A$2:$N$166,MATCH(B$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>276262598.46399498</v>
+        <v>319466918.26223499</v>
       </c>
       <c r="C11" s="2">
         <f t="array" ref="C11">INDEX(data!$A$2:$N$166,MATCH(C$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>249294474.069309</v>
+        <v>316035913.80086899</v>
       </c>
       <c r="D11" s="2">
         <f t="array" ref="D11">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>627317395.95266902</v>
+        <v>690761409.26428497</v>
       </c>
       <c r="E11" s="2">
         <f t="array" ref="E11">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>275790620.94035298</v>
+        <v>314328862.937163</v>
       </c>
       <c r="F11" s="2">
         <f t="array" ref="F11">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>129427634.626816</v>
+        <v>145614777.532105</v>
       </c>
       <c r="G11" s="2">
         <f t="array" ref="G11">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>202082676.76127499</v>
+        <v>262321287.183689</v>
       </c>
       <c r="H11" s="2">
         <f t="array" ref="H11">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
-        <v>132520973.71305899</v>
+        <v>156217537.21834701</v>
       </c>
       <c r="I11" s="2" t="e">
         <f t="array" ref="I11">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A11=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$8,data!$A$1:$N$1,0))</f>
@@ -11559,23 +11561,23 @@
       </c>
       <c r="D17" s="2">
         <f t="array" ref="D17">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>517331.48849999998</v>
+        <v>5784826.8715000004</v>
       </c>
       <c r="E17" s="2">
         <f t="array" ref="E17">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>57940703.210000001</v>
+        <v>73915937.020999998</v>
       </c>
       <c r="F17" s="2">
         <f t="array" ref="F17">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>14844256.449999999</v>
+        <v>30099943.451439999</v>
       </c>
       <c r="G17" s="2">
         <f t="array" ref="G17">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>15938183.236</v>
+        <v>39462209.144000001</v>
       </c>
       <c r="H17" s="2">
         <f t="array" ref="H17">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
-        <v>9313554.3890000004</v>
+        <v>9914466.2135000005</v>
       </c>
       <c r="I17" s="2" t="e">
         <f t="array" ref="I17">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A17=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$14,data!$A$1:$N$1,0))</f>
@@ -11783,23 +11785,23 @@
       </c>
       <c r="D23" s="2">
         <f t="array" ref="D23">INDEX(data!$A$2:$N$166,MATCH(D$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>517331.48849999998</v>
+        <v>1972416.7194999999</v>
       </c>
       <c r="E23" s="2">
         <f t="array" ref="E23">INDEX(data!$A$2:$N$166,MATCH(E$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>0</v>
+        <v>69954124.995000005</v>
       </c>
       <c r="F23" s="2">
         <f t="array" ref="F23">INDEX(data!$A$2:$N$166,MATCH(F$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>1120500</v>
+        <v>26164561.064440001</v>
       </c>
       <c r="G23" s="2">
         <f t="array" ref="G23">INDEX(data!$A$2:$N$166,MATCH(G$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>5105693.7699999996</v>
+        <v>20174767.995000001</v>
       </c>
       <c r="H23" s="2">
         <f t="array" ref="H23">INDEX(data!$A$2:$N$166,MATCH(H$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
-        <v>9278543.3890000004</v>
+        <v>9879455.2135000005</v>
       </c>
       <c r="I23" s="2" t="e">
         <f t="array" ref="I23">INDEX(data!$A$2:$N$166,MATCH(I$2,IF($A23=IF($A$1=data!$A$2:$A$166,data!$M$2:$M$166,0),data!$N$2:$N$166,0),0),MATCH(Bangladesh!$A$20,data!$A$1:$N$1,0))</f>
@@ -11890,51 +11892,51 @@
       </c>
       <c r="B27" s="2">
         <f>B15+B9+B21</f>
-        <v>175892923.19809899</v>
+        <v>199950014.36722401</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:M29" si="0">C15+C9+C21</f>
-        <v>94927076.421856001</v>
+        <v>132974882.321876</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>166889841.00760999</v>
+        <v>205644778.57347199</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>132905210.547674</v>
+        <v>142967766.198172</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>162406499.80929101</v>
+        <v>183794730.25012901</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>248003735.95678601</v>
+        <v>303267106.92301899</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>173287798.05994901</v>
+        <v>212975339.216333</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>114266011.88154</v>
+        <v>145514923.75263599</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>231171283.53332999</v>
+        <v>277076358.81079698</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>225414263.154917</v>
+        <v>248856535.54429901</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="0"/>
-        <v>212904605.99733001</v>
+        <v>240928573.85980201</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="0"/>
-        <v>146293361.50125301</v>
+        <v>189203790.796177</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -11943,51 +11945,51 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:G29" si="1">B16+B10+B22</f>
-        <v>112869121.387015</v>
+        <v>184032632.59975901</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>137422471.18359399</v>
+        <v>201195510.91833499</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>158242303.02468801</v>
+        <v>205532945.78207001</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>257650527.32066599</v>
+        <v>295310784.44319999</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>173742658.277343</v>
+        <v>229186990.03247201</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>147228932.71075001</v>
+        <v>182442011.96989799</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>256069437.19435501</v>
+        <v>313193870.94041401</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>352155518.35737801</v>
+        <v>434842342.02530003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>148017553.16806099</v>
+        <v>183949327.60313699</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>377589165.31685901</v>
+        <v>445701958.89735699</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="0"/>
-        <v>273097405.21239901</v>
+        <v>343088587.36458403</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="0"/>
-        <v>135665903.681499</v>
+        <v>142936820.96344799</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -11996,31 +11998,31 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="1"/>
-        <v>276262598.46399498</v>
+        <v>319466918.26223499</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>249294474.069309</v>
+        <v>316035913.80086899</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>628352058.92966902</v>
+        <v>698518652.85528493</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>333731324.15035295</v>
+        <v>458198924.95316303</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>145392391.07681599</v>
+        <v>201879282.04798502</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>223126553.76727501</v>
+        <v>321958264.322689</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>151113071.49105901</v>
+        <v>176011458.645347</v>
       </c>
       <c r="I29" s="2" t="e">
         <f t="shared" si="0"/>
@@ -12060,7 +12062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532B5989-8B85-449F-BC5E-2D3296A706A4}">
   <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12116,10 +12120,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>31304091.6820959</v>
+        <v>31210417.6375263</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>189132.68036960001</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -12128,16 +12132,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31304091.6820959</v>
+        <v>31399550.3178959</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.28602969913430498</v>
+        <v>0.28761763894094899</v>
       </c>
       <c r="L2">
-        <v>109443501.06593999</v>
+        <v>109171156.65615501</v>
       </c>
       <c r="M2">
         <v>2016</v>
@@ -12154,10 +12158,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>51455331.1961971</v>
+        <v>51421220.438161902</v>
       </c>
       <c r="D3">
-        <v>611.84298560000002</v>
+        <v>1787241.7012207999</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -12166,16 +12170,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>51455943.0391827</v>
+        <v>53208462.139382698</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.28383267398808898</v>
+        <v>0.28021983725882599</v>
       </c>
       <c r="L3">
-        <v>181289709.58904499</v>
+        <v>189881139.96453601</v>
       </c>
       <c r="M3">
         <v>2016</v>
@@ -12192,10 +12196,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>503469236.39385802</v>
+        <v>499681768.64617801</v>
       </c>
       <c r="D4">
-        <v>1137757.5388152001</v>
+        <v>5280513.7793512</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -12204,16 +12208,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>504606993.93267399</v>
+        <v>504962282.42553002</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.01501249056441</v>
+        <v>1.9356238354045401</v>
       </c>
       <c r="L4">
-        <v>250423754.83803201</v>
+        <v>260878313.84861699</v>
       </c>
       <c r="M4">
         <v>2016</v>
@@ -12230,10 +12234,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>11142418.3856721</v>
+        <v>10912542.5766785</v>
       </c>
       <c r="D5">
-        <v>1924223.5</v>
+        <v>2754202.4580235998</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -12242,16 +12246,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13066641.8856721</v>
+        <v>13666745.0347021</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.31705848075280102</v>
+        <v>0.31474428673115801</v>
       </c>
       <c r="L5">
-        <v>41212087.608089402</v>
+        <v>43421741.429021403</v>
       </c>
       <c r="M5">
         <v>2016</v>
@@ -12268,10 +12272,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>55837803.0540433</v>
+        <v>55828221.7095057</v>
       </c>
       <c r="D6">
-        <v>64533.765184800002</v>
+        <v>3356346.0397223998</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -12280,16 +12284,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55902336.819228098</v>
+        <v>59184567.749228097</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.37699065441859902</v>
+        <v>0.37656807706039502</v>
       </c>
       <c r="L6">
-        <v>148285736.43408099</v>
+        <v>157168308.61298999</v>
       </c>
       <c r="M6">
         <v>2016</v>
@@ -12306,10 +12310,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>746567035.84633505</v>
+        <v>713302979.04466498</v>
       </c>
       <c r="D7">
-        <v>6763423.9616</v>
+        <v>42006554.789694399</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12318,16 +12322,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>753330459.807935</v>
+        <v>755309533.83435905</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.6044397234668799</v>
+        <v>2.48936909316205</v>
       </c>
       <c r="L7">
-        <v>289248567.75151098</v>
+        <v>303414040.09115797</v>
       </c>
       <c r="M7">
         <v>2016</v>
@@ -12344,10 +12348,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>21529020.5696747</v>
+        <v>21444852.068026699</v>
       </c>
       <c r="D8">
-        <v>1799769</v>
+        <v>2702751.7858480001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12356,22 +12360,22 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23328789.5696747</v>
+        <v>24147603.853874698</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.29584755237729199</v>
+        <v>0.29823788617334002</v>
       </c>
       <c r="J8">
-        <v>228400353.15750799</v>
+        <v>235417939.21678799</v>
       </c>
       <c r="K8">
-        <v>0.34524504482120799</v>
+        <v>0.34393128026168301</v>
       </c>
       <c r="L8">
-        <v>78854090.163043395</v>
+        <v>80967593.231397197</v>
       </c>
       <c r="M8">
         <v>2016</v>
@@ -12388,10 +12392,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>29371884.7995032</v>
+        <v>29357944.495402399</v>
       </c>
       <c r="D9">
-        <v>591477.65322800004</v>
+        <v>2358116.3267287998</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -12400,22 +12404,22 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29963362.4527312</v>
+        <v>31716060.822131101</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.30790270599869202</v>
+        <v>0.310010655475012</v>
       </c>
       <c r="J9">
-        <v>231153632.11617601</v>
+        <v>238141249.13100201</v>
       </c>
       <c r="K9">
-        <v>0.42099440116819797</v>
+        <v>0.42960368045367697</v>
       </c>
       <c r="L9">
-        <v>97314384.930603296</v>
+        <v>102306357.094515</v>
       </c>
       <c r="M9">
         <v>2016</v>
@@ -12432,10 +12436,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>382341476.11516398</v>
+        <v>377667922.763484</v>
       </c>
       <c r="D10">
-        <v>9485109.9680000003</v>
+        <v>17305702.842098001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -12444,22 +12448,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>391826586.08316398</v>
+        <v>394973625.605582</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.4400134599832499</v>
+        <v>1.3822757928357801</v>
       </c>
       <c r="J10">
-        <v>232901411.11277601</v>
+        <v>239845300.517546</v>
       </c>
       <c r="K10">
-        <v>1.1683022924679201</v>
+        <v>1.1913577124944801</v>
       </c>
       <c r="L10">
-        <v>272099252.522071</v>
+        <v>285741548.57713503</v>
       </c>
       <c r="M10">
         <v>2016</v>
@@ -12476,10 +12480,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>73533387.493003801</v>
+        <v>73519805.136523798</v>
       </c>
       <c r="D11">
-        <v>60823.5</v>
+        <v>74405.856480000002</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -12494,16 +12498,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.403365697910397</v>
+        <v>0.39495932833786601</v>
       </c>
       <c r="J11">
-        <v>235878009.15174901</v>
+        <v>242824259.48041499</v>
       </c>
       <c r="K11">
-        <v>0.77349451214701204</v>
+        <v>0.76736008454148996</v>
       </c>
       <c r="L11">
-        <v>182450345.61504</v>
+        <v>186333644.28361601</v>
       </c>
       <c r="M11">
         <v>2016</v>
@@ -12520,10 +12524,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>128589553.76174399</v>
+        <v>127803107.82731199</v>
       </c>
       <c r="D12">
-        <v>-561.70799999999997</v>
+        <v>1261722.2264324001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -12532,22 +12536,22 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>128588992.053744</v>
+        <v>129064830.053744</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.60687564393664595</v>
+        <v>0.58718131190211298</v>
       </c>
       <c r="J12">
-        <v>239378569.79176399</v>
+        <v>246198125.766087</v>
       </c>
       <c r="K12">
-        <v>0.88515395900885496</v>
+        <v>0.89279334949261702</v>
       </c>
       <c r="L12">
-        <v>211886888.753057</v>
+        <v>219804049.34150901</v>
       </c>
       <c r="M12">
         <v>2016</v>
@@ -12564,10 +12568,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>644007159.85090101</v>
+        <v>627188097.64601398</v>
       </c>
       <c r="D13">
-        <v>11932581.220058</v>
+        <v>98413683.0671352</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -12576,22 +12580,22 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>655939741.07095897</v>
+        <v>725601780.71314895</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.0626312174686401</v>
+        <v>3.3431922567179702</v>
       </c>
       <c r="J13">
-        <v>242614398.86354199</v>
+        <v>249312073.307897</v>
       </c>
       <c r="K13">
-        <v>0.88278036912733904</v>
+        <v>0.87054991458451203</v>
       </c>
       <c r="L13">
-        <v>214175228.58436501</v>
+        <v>217038604.12307701</v>
       </c>
       <c r="M13">
         <v>2016</v>
@@ -12608,10 +12612,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>84056121.436364606</v>
+        <v>84573515.204158604</v>
       </c>
       <c r="D14">
-        <v>3040147.2457849998</v>
+        <v>3198069.2314909999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -12620,22 +12624,22 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>87096268.682149604</v>
+        <v>87771584.435649604</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.28602969913430498</v>
+        <v>0.28761763894094899</v>
       </c>
       <c r="J14">
-        <v>247124401.74636301</v>
+        <v>253851417.22884399</v>
       </c>
       <c r="K14">
-        <v>1.23217612471197</v>
+        <v>1.20215046574608</v>
       </c>
       <c r="L14">
-        <v>304500787.66559702</v>
+        <v>305167599.451958</v>
       </c>
       <c r="M14">
         <v>2017</v>
@@ -12652,10 +12656,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>59792657.6723122</v>
+        <v>59400196.022802196</v>
       </c>
       <c r="D15">
-        <v>1949803.3748550001</v>
+        <v>2795669.9399649999</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -12664,22 +12668,22 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61742461.047167197</v>
+        <v>62195865.962767199</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.28383267398808898</v>
+        <v>0.28021983725882599</v>
       </c>
       <c r="J15">
-        <v>252006790.64715001</v>
+        <v>258754758.00999099</v>
       </c>
       <c r="K15">
-        <v>0.86319577134783299</v>
+        <v>0.85777680433884596</v>
       </c>
       <c r="L15">
-        <v>217531196.03755799</v>
+        <v>221953829.433281</v>
       </c>
       <c r="M15">
         <v>2017</v>
@@ -12696,10 +12700,10 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>529814018.79970098</v>
+        <v>516879102.163333</v>
       </c>
       <c r="D16">
-        <v>6453153.04339871</v>
+        <v>19993009.7158673</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -12708,22 +12712,22 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>536267171.84310001</v>
+        <v>536872111.87919998</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.01501249056441</v>
+        <v>1.9356238354045401</v>
       </c>
       <c r="J16">
-        <v>253408118.73898399</v>
+        <v>260034516.27292699</v>
       </c>
       <c r="K16">
-        <v>1.0502264326336299</v>
+        <v>1.0666425015021299</v>
       </c>
       <c r="L16">
-        <v>266135904.54364401</v>
+        <v>277363866.91425198</v>
       </c>
       <c r="M16">
         <v>2017</v>
@@ -12740,10 +12744,10 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>50323681.409778602</v>
+        <v>50537100.2564786</v>
       </c>
       <c r="D17">
-        <v>2521135.5008100001</v>
+        <v>2714830.4334100001</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -12752,22 +12756,22 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>52844816.9105886</v>
+        <v>53251930.689888597</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.31705848075280102</v>
+        <v>0.31474428673115801</v>
       </c>
       <c r="J17">
-        <v>255084181.32319799</v>
+        <v>261657702.33282501</v>
       </c>
       <c r="K17">
-        <v>0.653400550394584</v>
+        <v>0.64661232610675101</v>
       </c>
       <c r="L17">
-        <v>166672144.47352999</v>
+        <v>169191095.54917601</v>
       </c>
       <c r="M17">
         <v>2017</v>
@@ -12784,10 +12788,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>94229075.343765199</v>
+        <v>94252061.652095199</v>
       </c>
       <c r="D18">
-        <v>5908541.8109062901</v>
+        <v>6320111.2980602402</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -12796,22 +12800,22 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>100137617.154671</v>
+        <v>100572172.950155</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.37699065441859902</v>
+        <v>0.37656807706039502</v>
       </c>
       <c r="J18">
-        <v>261730933.212726</v>
+        <v>268416494.19632801</v>
       </c>
       <c r="K18">
-        <v>1.0148728046928299</v>
+        <v>0.99500470229938398</v>
       </c>
       <c r="L18">
-        <v>265623606.26447201</v>
+        <v>267075673.90006199</v>
       </c>
       <c r="M18">
         <v>2017</v>
@@ -12828,10 +12832,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>780097121.98377299</v>
+        <v>748203631.22282302</v>
       </c>
       <c r="D19">
-        <v>6657955.2113950001</v>
+        <v>40453038.4140478</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -12840,22 +12844,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>786755077.19516802</v>
+        <v>788656669.63687098</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.6044397234668799</v>
+        <v>2.48936909316205</v>
       </c>
       <c r="J19">
-        <v>280992103.71712297</v>
+        <v>289945768.150159</v>
       </c>
       <c r="K19">
-        <v>1.0750561000432299</v>
+        <v>1.09265212012409</v>
       </c>
       <c r="L19">
-        <v>302082275.16507298</v>
+        <v>316809858.29027998</v>
       </c>
       <c r="M19">
         <v>2017</v>
@@ -12872,10 +12876,10 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>94960506.497200698</v>
+        <v>94881367.447994694</v>
       </c>
       <c r="D20">
-        <v>3183734.8729300001</v>
+        <v>4863354.7060996899</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -12884,22 +12888,22 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>98144241.370130703</v>
+        <v>99744722.154094398</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.29584755237729199</v>
+        <v>0.29823788617334002</v>
       </c>
       <c r="J20">
-        <v>298042585.80483103</v>
+        <v>309215031.63271701</v>
       </c>
       <c r="K20">
-        <v>1.1130598547239099</v>
+        <v>1.08159959156753</v>
       </c>
       <c r="L20">
-        <v>331739237.25746399</v>
+        <v>334446851.920488</v>
       </c>
       <c r="M20">
         <v>2017</v>
@@ -12916,10 +12920,10 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>58641309.955955602</v>
+        <v>58802039.348431602</v>
       </c>
       <c r="D21">
-        <v>13683934.315211</v>
+        <v>14997081.920998801</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -12928,22 +12932,22 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>72325244.271166593</v>
+        <v>73799121.269430399</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.30790270599869202</v>
+        <v>0.310010655475012</v>
       </c>
       <c r="J21">
-        <v>301640012.01045299</v>
+        <v>312841752.03385901</v>
       </c>
       <c r="K21">
-        <v>0.77873098278497799</v>
+        <v>0.760939028990678</v>
       </c>
       <c r="L21">
-        <v>234896423.00017199</v>
+        <v>238053499.02038699</v>
       </c>
       <c r="M21">
         <v>2017</v>
@@ -12960,10 +12964,10 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>305726963.86205</v>
+        <v>290793417.18811399</v>
       </c>
       <c r="D22">
-        <v>77369614.606714994</v>
+        <v>92811346.280651003</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -12972,22 +12976,22 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>383096578.46876502</v>
+        <v>383604763.46876502</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.4400134599832499</v>
+        <v>1.3822757928357801</v>
       </c>
       <c r="J22">
-        <v>305732248.54519302</v>
+        <v>316976967.75688303</v>
       </c>
       <c r="K22">
-        <v>0.87016271645270105</v>
+        <v>0.87551095044808802</v>
       </c>
       <c r="L22">
-        <v>266036803.90127799</v>
+        <v>277516806.31098199</v>
       </c>
       <c r="M22">
         <v>2017</v>
@@ -13004,10 +13008,10 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>88283070.719230205</v>
+        <v>88700094.0222812</v>
       </c>
       <c r="D23">
-        <v>34266649.9093097</v>
+        <v>35219444.545080401</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -13016,22 +13020,22 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>122549720.62853999</v>
+        <v>123919538.567362</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.403365697910397</v>
+        <v>0.39495932833786601</v>
       </c>
       <c r="J23">
-        <v>311013561.494901</v>
+        <v>322408903.72815502</v>
       </c>
       <c r="K23">
-        <v>0.976863844472868</v>
+        <v>0.97315134012933302</v>
       </c>
       <c r="L23">
-        <v>303817903.365107</v>
+        <v>313752656.73268402</v>
       </c>
       <c r="M23">
         <v>2017</v>
@@ -13048,10 +13052,10 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>185850244.13076901</v>
+        <v>185323050.99595401</v>
       </c>
       <c r="D24">
-        <v>53305283.636107199</v>
+        <v>55627456.207522199</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -13060,22 +13064,22 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>239155527.76687601</v>
+        <v>240950507.20347601</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.60687564393664595</v>
+        <v>0.58718131190211298</v>
       </c>
       <c r="J24">
-        <v>313978267.37014502</v>
+        <v>325639706.975761</v>
       </c>
       <c r="K24">
-        <v>1.2551080840639399</v>
+        <v>1.2601384541887399</v>
       </c>
       <c r="L24">
-        <v>394076661.596659</v>
+        <v>410351116.970909</v>
       </c>
       <c r="M24">
         <v>2017</v>
@@ -13092,10 +13096,10 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>789422100.48561203</v>
+        <v>738777020.69944501</v>
       </c>
       <c r="D25">
-        <v>218219196.97773299</v>
+        <v>391641657.75589699</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -13104,22 +13108,22 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1007641297.4633501</v>
+        <v>1130418678.4553399</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.0626312174686401</v>
+        <v>3.3431922567179702</v>
       </c>
       <c r="J25">
-        <v>316913753.99237001</v>
+        <v>328771987.97214401</v>
       </c>
       <c r="K25">
-        <v>1.038174041472</v>
+        <v>1.0284499585619999</v>
       </c>
       <c r="L25">
-        <v>329011632.78032303</v>
+        <v>338125537.406299</v>
       </c>
       <c r="M25">
         <v>2017</v>
@@ -13136,10 +13140,10 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>104801353.397937</v>
+        <v>104818300.431913</v>
       </c>
       <c r="D26">
-        <v>39804928.9968196</v>
+        <v>40598709.842938699</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -13148,22 +13152,22 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>144606282.394757</v>
+        <v>145417010.27485201</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.28602969913430498</v>
+        <v>0.28761763894094899</v>
       </c>
       <c r="J26">
-        <v>321467137.576074</v>
+        <v>333600854.80915201</v>
       </c>
       <c r="K26">
-        <v>1.5726766862960999</v>
+        <v>1.5155579248859601</v>
       </c>
       <c r="L26">
-        <v>505563872.67623299</v>
+        <v>505591419.25474</v>
       </c>
       <c r="M26">
         <v>2018</v>
@@ -13180,10 +13184,10 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>58704640.632247202</v>
+        <v>58752876.224073201</v>
       </c>
       <c r="D27">
-        <v>31866035.637237001</v>
+        <v>32838853.526911002</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -13192,22 +13196,22 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>90570676.269484207</v>
+        <v>91591729.750984207</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.28383267398808898</v>
+        <v>0.28021983725882599</v>
       </c>
       <c r="J27">
-        <v>325413028.43142599</v>
+        <v>338276591.36473101</v>
       </c>
       <c r="K27">
-        <v>0.98059637894921503</v>
+        <v>0.96624094863153198</v>
       </c>
       <c r="L27">
-        <v>319098837.34275502</v>
+        <v>326856694.54009902</v>
       </c>
       <c r="M27">
         <v>2018</v>
@@ -13224,10 +13228,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>580265140.23822403</v>
+        <v>552799502.06750906</v>
       </c>
       <c r="D28">
-        <v>25387493.216323201</v>
+        <v>53921923.3760392</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -13236,22 +13240,22 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>605652633.454548</v>
+        <v>606721425.44354796</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2.01501249056441</v>
+        <v>1.9356238354045401</v>
       </c>
       <c r="J28">
-        <v>336653550.73860401</v>
+        <v>350167443.90778899</v>
       </c>
       <c r="K28">
-        <v>0.89281744599802404</v>
+        <v>0.895143380127567</v>
       </c>
       <c r="L28">
-        <v>300570163.35660702</v>
+        <v>313450069.35024899</v>
       </c>
       <c r="M28">
         <v>2018</v>
@@ -13268,10 +13272,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>88920520.123599693</v>
+        <v>85668282.652852699</v>
       </c>
       <c r="D29">
-        <v>21290345.968524799</v>
+        <v>28100797.783226799</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -13280,22 +13284,22 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>110210866.092125</v>
+        <v>113769080.43607999</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.31705848075280102</v>
+        <v>0.31474428673115801</v>
       </c>
       <c r="J29">
-        <v>347512940.84675598</v>
+        <v>361185689.54514098</v>
       </c>
       <c r="K29">
-        <v>1.0002626658165299</v>
+        <v>1.0007736393978901</v>
       </c>
       <c r="L29">
-        <v>347604220.61711699</v>
+        <v>361465117.02452701</v>
       </c>
       <c r="M29">
         <v>2018</v>
@@ -13312,10 +13316,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>92494513.063516095</v>
+        <v>91553891.539418206</v>
       </c>
       <c r="D30">
-        <v>21429995.915493999</v>
+        <v>26040409.607092001</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -13324,22 +13328,22 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>113924508.97901</v>
+        <v>117594301.14651</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.37699065441859902</v>
+        <v>0.37656807706039502</v>
       </c>
       <c r="J30">
-        <v>350012214.04478502</v>
+        <v>363687300.43138099</v>
       </c>
       <c r="K30">
-        <v>0.86338277793265195</v>
+        <v>0.858646963858261</v>
       </c>
       <c r="L30">
-        <v>302194517.67234498</v>
+        <v>312278996.30921203</v>
       </c>
       <c r="M30">
         <v>2018</v>
@@ -13356,10 +13360,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>756275344.61757803</v>
+        <v>691907051.92682397</v>
       </c>
       <c r="D31">
-        <v>87144519.686632499</v>
+        <v>154902233.42688599</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -13368,22 +13372,22 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>843419864.30421102</v>
+        <v>846809285.35371006</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2.6044397234668799</v>
+        <v>2.48936909316205</v>
       </c>
       <c r="J31">
-        <v>363313253.83566898</v>
+        <v>384190118.19651598</v>
       </c>
       <c r="K31">
-        <v>0.89135000909537399</v>
+        <v>0.88542163186412304</v>
       </c>
       <c r="L31">
-        <v>323839272.11089402</v>
+        <v>340170241.399629</v>
       </c>
       <c r="M31">
         <v>2018</v>
@@ -13400,10 +13404,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>124873579.866412</v>
+        <v>123943361.792704</v>
       </c>
       <c r="D32">
-        <v>25887080.4035758</v>
+        <v>33541548.732725799</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -13412,22 +13416,22 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>150760660.269988</v>
+        <v>157484910.52542999</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.29584755237729199</v>
+        <v>0.29823788617334002</v>
       </c>
       <c r="J32">
-        <v>372788432.16794002</v>
+        <v>401328600.74765199</v>
       </c>
       <c r="K32">
-        <v>1.3669657168923399</v>
+        <v>1.31575801615532</v>
       </c>
       <c r="L32">
-        <v>509589006.42762101</v>
+        <v>528051323.54612303</v>
       </c>
       <c r="M32">
         <v>2018</v>
@@ -13444,10 +13448,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>83799934.442697704</v>
+        <v>84535466.0078637</v>
       </c>
       <c r="D33">
-        <v>30610271.457075998</v>
+        <v>43741144.224129103</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -13456,22 +13460,22 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>114410205.899774</v>
+        <v>128276610.231993</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.30790270599869202</v>
+        <v>0.310010655475012</v>
       </c>
       <c r="J33">
-        <v>372106284.02073902</v>
+        <v>401526908.99183202</v>
       </c>
       <c r="K33">
-        <v>0.99858320430889302</v>
+        <v>1.0305194618681499</v>
       </c>
       <c r="L33">
-        <v>371579085.44090402</v>
+        <v>413781294.17984599</v>
       </c>
       <c r="M33">
         <v>2018</v>
@@ -13488,10 +13492,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>476107781.095204</v>
+        <v>412570318.80051601</v>
       </c>
       <c r="D34">
-        <v>134676371.11721399</v>
+        <v>201937416.739081</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -13500,22 +13504,22 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>610784152.21241796</v>
+        <v>614507735.53959703</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.4400134599832499</v>
+        <v>1.3822757928357801</v>
       </c>
       <c r="J34">
-        <v>386326150.60652602</v>
+        <v>416811624.836676</v>
       </c>
       <c r="K34">
-        <v>1.0979109127287401</v>
+        <v>1.06657850956863</v>
       </c>
       <c r="L34">
-        <v>424151696.62339199</v>
+        <v>444562321.58917999</v>
       </c>
       <c r="M34">
         <v>2018</v>
@@ -13532,10 +13536,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>119946524.597754</v>
+        <v>119947039.91564</v>
       </c>
       <c r="D35">
-        <v>35540984.882772103</v>
+        <v>37507421.877342097</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -13544,22 +13548,22 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>155487509.480526</v>
+        <v>157454461.79298201</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.403365697910397</v>
+        <v>0.39495932833786601</v>
       </c>
       <c r="J35">
-        <v>401430572.951307</v>
+        <v>432999491.34865397</v>
       </c>
       <c r="K35">
-        <v>0.96025394234429495</v>
+        <v>0.920693781615603</v>
       </c>
       <c r="L35">
-        <v>385475290.254022</v>
+        <v>398659939.12742501</v>
       </c>
       <c r="M35">
         <v>2018</v>
@@ -13576,10 +13580,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>214122609.730878</v>
+        <v>213244549.36179799</v>
       </c>
       <c r="D36">
-        <v>52077685.936729103</v>
+        <v>54209695.885809101</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -13588,22 +13592,22 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>266200295.66760701</v>
+        <v>267454245.24760699</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.60687564393664595</v>
+        <v>0.58718131190211298</v>
       </c>
       <c r="J36">
-        <v>406940508.89745998</v>
+        <v>439624070.10774201</v>
       </c>
       <c r="K36">
-        <v>1.07789858444446</v>
+        <v>1.0360860065253299</v>
       </c>
       <c r="L36">
-        <v>438640598.49367899</v>
+        <v>455488347.170344</v>
       </c>
       <c r="M36">
         <v>2018</v>
@@ -13620,10 +13624,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>968453313.46557999</v>
+        <v>881755516.61278701</v>
       </c>
       <c r="D37">
-        <v>331368171.07823998</v>
+        <v>714227050.161672</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -13632,22 +13636,22 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1299821484.5438199</v>
+        <v>1595982566.7744601</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>3.0626312174686401</v>
+        <v>3.3431922567179702</v>
       </c>
       <c r="J37">
-        <v>420437554.08149499</v>
+        <v>454513146.564619</v>
       </c>
       <c r="K37">
-        <v>1.0094562590879199</v>
+        <v>1.05031687076403</v>
       </c>
       <c r="L37">
-        <v>424413320.52318197</v>
+        <v>477382825.82086402</v>
       </c>
       <c r="M37">
         <v>2018</v>
@@ -13664,10 +13668,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>67266755.396896005</v>
+        <v>67481774.852005005</v>
       </c>
       <c r="D38">
-        <v>12563619.891894201</v>
+        <v>23694928.3309852</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -13676,22 +13680,22 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>79830375.288790196</v>
+        <v>91176703.182990193</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0.28602969913430498</v>
+        <v>0.28761763894094899</v>
       </c>
       <c r="J38">
-        <v>430907453.70046198</v>
+        <v>466364965.71681303</v>
       </c>
       <c r="K38">
-        <v>0.64769871464844997</v>
+        <v>0.67973940960870005</v>
       </c>
       <c r="L38">
-        <v>279098203.89422601</v>
+        <v>317006646.45852798</v>
       </c>
       <c r="M38">
         <v>2019</v>
@@ -13708,10 +13712,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>99446176.045642093</v>
+        <v>99803172.439432099</v>
       </c>
       <c r="D39">
-        <v>39528851.796967603</v>
+        <v>50788262.263732597</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -13720,22 +13724,22 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>138975027.84261</v>
+        <v>150591434.70316499</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0.28383267398808898</v>
+        <v>0.28021983725882599</v>
       </c>
       <c r="J39">
-        <v>435199596.97344702</v>
+        <v>471344409.836541</v>
       </c>
       <c r="K39">
-        <v>1.1250864557559801</v>
+        <v>1.14015273579101</v>
       </c>
       <c r="L39">
-        <v>489637172.10528803</v>
+        <v>537404618.37493098</v>
       </c>
       <c r="M39">
         <v>2019</v>
@@ -13752,10 +13756,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>833936194.927163</v>
+        <v>764309605.14578795</v>
       </c>
       <c r="D40">
-        <v>64588885.013166897</v>
+        <v>150245295.62184101</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -13764,22 +13768,22 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>898525079.94032896</v>
+        <v>914554900.76762903</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2.01501249056441</v>
+        <v>1.9356238354045401</v>
       </c>
       <c r="J40">
-        <v>434685410.58363903</v>
+        <v>471361851.434829</v>
       </c>
       <c r="K40">
-        <v>1.0258347274213699</v>
+        <v>1.00238460713169</v>
       </c>
       <c r="L40">
-        <v>445915389.680116</v>
+        <v>472485864.26736599</v>
       </c>
       <c r="M40">
         <v>2019</v>
@@ -13796,10 +13800,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>152449818.04364699</v>
+        <v>132932145.19974799</v>
       </c>
       <c r="D41">
-        <v>27394737.837436099</v>
+        <v>61512256.199735098</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -13808,22 +13812,22 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>179844555.881084</v>
+        <v>194444401.39948401</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0.31705848075280102</v>
+        <v>0.31474428673115801</v>
       </c>
       <c r="J41">
-        <v>431281708.59921497</v>
+        <v>469162048.81242901</v>
       </c>
       <c r="K41">
-        <v>1.3152153898419201</v>
+        <v>1.3167845232567501</v>
       </c>
       <c r="L41">
-        <v>567228340.50700605</v>
+        <v>617785324.77563298</v>
       </c>
       <c r="M41">
         <v>2019</v>
@@ -13840,10 +13844,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>143840288.14296401</v>
+        <v>140930786.388237</v>
       </c>
       <c r="D42">
-        <v>32688993.754753001</v>
+        <v>54978084.012979999</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -13852,22 +13856,22 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>176529281.897717</v>
+        <v>195908870.40121701</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0.37699065441859902</v>
+        <v>0.37656807706039502</v>
       </c>
       <c r="J42">
-        <v>429350041.08994401</v>
+        <v>468473118.77794701</v>
       </c>
       <c r="K42">
-        <v>1.09062302342755</v>
+        <v>1.1105188226037399</v>
       </c>
       <c r="L42">
-        <v>468259039.92225701</v>
+        <v>520248216.28679001</v>
       </c>
       <c r="M42">
         <v>2019</v>
@@ -13884,10 +13888,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>1016500669.20188</v>
+        <v>952131858.83260405</v>
       </c>
       <c r="D43">
-        <v>88243506.600464895</v>
+        <v>173700692.231442</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -13896,22 +13900,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1104744175.80235</v>
+        <v>1125832551.06405</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2.6044397234668799</v>
+        <v>2.48936909316205</v>
       </c>
       <c r="J43">
-        <v>423131096.57223803</v>
+        <v>458632668.45657998</v>
       </c>
       <c r="K43">
-        <v>1.0024724969144301</v>
+        <v>0.986096736773172</v>
       </c>
       <c r="L43">
-        <v>424177286.90290999</v>
+        <v>452256177.74260598</v>
       </c>
       <c r="M43">
         <v>2019</v>
@@ -13928,10 +13932,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>116216821.762529</v>
+        <v>113749496.11368699</v>
       </c>
       <c r="D44">
-        <v>24497117.864524301</v>
+        <v>49155808.354068302</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -13940,22 +13944,22 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>140713939.62705299</v>
+        <v>162905304.46775499</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.29584755237729199</v>
+        <v>0.29823788617334002</v>
       </c>
       <c r="J44">
-        <v>419710150.22975397</v>
+        <v>451076654.94649202</v>
       </c>
       <c r="K44">
-        <v>1.13323419163325</v>
+        <v>1.2109384303639801</v>
       </c>
       <c r="L44">
-        <v>475629892.81588399</v>
+        <v>546226056.51473904</v>
       </c>
       <c r="M44">
         <v>2019</v>
@@ -13972,10 +13976,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>168901168.590085</v>
+        <v>148051468.46271801</v>
       </c>
       <c r="D45">
-        <v>58567196.504260004</v>
+        <v>94311406.700412005</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -13984,22 +13988,22 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>227468365.094345</v>
+        <v>242362875.16312999</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0.30790270599869202</v>
+        <v>0.310010655475012</v>
       </c>
       <c r="J45">
-        <v>419707197.083875</v>
+        <v>451596923.39796698</v>
       </c>
       <c r="K45">
-        <v>1.7601962198086401</v>
+        <v>1.7311651470360101</v>
       </c>
       <c r="L45">
-        <v>738767021.73351598</v>
+        <v>781788854.29525101</v>
       </c>
       <c r="M45">
         <v>2019</v>
@@ -14016,10 +14020,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>316410874.174339</v>
+        <v>300041166.40954101</v>
       </c>
       <c r="D46">
-        <v>168974645.48813</v>
+        <v>200798902.55782801</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -14028,22 +14032,22 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>485385519.66246903</v>
+        <v>500840068.96736902</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1.4400134599832499</v>
+        <v>1.3822757928357801</v>
       </c>
       <c r="J46">
-        <v>409996695.70687199</v>
+        <v>442524236.08991599</v>
       </c>
       <c r="K46">
-        <v>0.82212888642134396</v>
+        <v>0.81878014583732295</v>
       </c>
       <c r="L46">
-        <v>337070126.87792099</v>
+        <v>362330058.56225097</v>
       </c>
       <c r="M46">
         <v>2019</v>
@@ -14060,10 +14064,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>160651816.97902301</v>
+        <v>132467003.016811</v>
       </c>
       <c r="D47">
-        <v>38545477.425279997</v>
+        <v>85859862.410798997</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -14072,22 +14076,22 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>199197294.40430301</v>
+        <v>218326865.42761001</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0.403365697910397</v>
+        <v>0.39495932833786601</v>
       </c>
       <c r="J47">
-        <v>395737580.689592</v>
+        <v>428174819.33419299</v>
       </c>
       <c r="K47">
-        <v>1.24789250910653</v>
+        <v>1.2910221120620899</v>
       </c>
       <c r="L47">
-        <v>493837962.51448399</v>
+        <v>552783159.58863497</v>
       </c>
       <c r="M47">
         <v>2019</v>
@@ -14104,10 +14108,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>117830709.369381</v>
+        <v>116595809.29571401</v>
       </c>
       <c r="D48">
-        <v>58299781.151937999</v>
+        <v>73451711.489712</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -14116,22 +14120,22 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>176130490.521319</v>
+        <v>190047520.78542599</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0.60687564393664595</v>
+        <v>0.58718131190211298</v>
       </c>
       <c r="J48">
-        <v>392013631.98632503</v>
+        <v>424078457.30255598</v>
       </c>
       <c r="K48">
-        <v>0.74034418055345697</v>
+        <v>0.76320950814183097</v>
       </c>
       <c r="L48">
-        <v>290225011.13870102</v>
+        <v>323660710.81143099</v>
       </c>
       <c r="M48">
         <v>2019</v>
@@ -14148,10 +14152,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>1053933351.6999</v>
+        <v>1018463719.39237</v>
       </c>
       <c r="D49">
-        <v>186703269.565254</v>
+        <v>418754764.13146102</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -14160,22 +14164,22 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1240636621.2651601</v>
+        <v>1437218483.5238299</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>3.0626312174686401</v>
+        <v>3.3431922567179702</v>
       </c>
       <c r="J49">
-        <v>394018858.54571998</v>
+        <v>428646449.88489997</v>
       </c>
       <c r="K49">
-        <v>1.0280941383834501</v>
+        <v>1.00291057443797</v>
       </c>
       <c r="L49">
-        <v>405088478.88339102</v>
+        <v>429894057.28486401</v>
       </c>
       <c r="M49">
         <v>2019</v>
@@ -14192,10 +14196,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>37493388.060126901</v>
+        <v>35800184.958126903</v>
       </c>
       <c r="D50">
-        <v>19419138.287716102</v>
+        <v>32796277.2333811</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -14204,22 +14208,22 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>56912526.347842999</v>
+        <v>68596462.191507995</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0.28602969913430498</v>
+        <v>0.28761763894094899</v>
       </c>
       <c r="J50">
-        <v>393265924.31436598</v>
+        <v>429898353.78486198</v>
       </c>
       <c r="K50">
-        <v>0.50595328241418502</v>
+        <v>0.55477951810777504</v>
       </c>
       <c r="L50">
-        <v>198974185.268502</v>
+        <v>238498801.54809099</v>
       </c>
       <c r="M50">
         <v>2020</v>
@@ -14236,10 +14240,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>137691818.368213</v>
+        <v>117868877.43559299</v>
       </c>
       <c r="D51">
-        <v>24130182.914236698</v>
+        <v>67789241.0944556</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -14248,16 +14252,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>161822001.28244999</v>
+        <v>185658118.530049</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0.28383267398808898</v>
+        <v>0.28021983725882599</v>
       </c>
       <c r="L51">
-        <v>570131687.12648296</v>
+        <v>662544523.42203403</v>
       </c>
       <c r="M51">
         <v>2020</v>
@@ -14274,10 +14278,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>565068331.09566402</v>
+        <v>534443884.43156397</v>
       </c>
       <c r="D52">
-        <v>77557742.356767401</v>
+        <v>127299837.11594699</v>
       </c>
       <c r="E52">
         <v>106599.39498</v>
@@ -14286,16 +14290,16 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>642626073.45243096</v>
+        <v>661743721.54751098</v>
       </c>
       <c r="H52">
         <v>106599.39498</v>
       </c>
       <c r="I52">
-        <v>2.01501249056441</v>
+        <v>1.9356238354045401</v>
       </c>
       <c r="L52">
-        <v>318919151.35098302</v>
+        <v>341876200.03615397</v>
       </c>
       <c r="M52">
         <v>2020</v>
@@ -14312,28 +14316,28 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>70786165.875114799</v>
+        <v>68583506.519414797</v>
       </c>
       <c r="D53">
-        <v>22738636.079137001</v>
+        <v>34286071.962837003</v>
       </c>
       <c r="E53">
-        <v>27832461.69689</v>
+        <v>27189195.346889999</v>
       </c>
       <c r="F53">
-        <v>211974</v>
+        <v>855240.35</v>
       </c>
       <c r="G53">
-        <v>93524801.954251707</v>
+        <v>102869578.482252</v>
       </c>
       <c r="H53">
         <v>28044435.69689</v>
       </c>
       <c r="I53">
-        <v>0.31705848075280102</v>
+        <v>0.31474428673115801</v>
       </c>
       <c r="L53">
-        <v>294976503.17440897</v>
+        <v>326835411.53558302</v>
       </c>
       <c r="M53">
         <v>2020</v>
@@ -14350,28 +14354,28 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>146148559.82255</v>
+        <v>141021722.08693501</v>
       </c>
       <c r="D54">
-        <v>27325707.123608001</v>
+        <v>48149282.472232997</v>
       </c>
       <c r="E54">
-        <v>520927867.316145</v>
+        <v>500030036.89614499</v>
       </c>
       <c r="F54">
-        <v>44387</v>
+        <v>23408139.940000001</v>
       </c>
       <c r="G54">
-        <v>173474266.94615799</v>
+        <v>189171004.55916801</v>
       </c>
       <c r="H54">
-        <v>520972254.316145</v>
+        <v>523438176.83614498</v>
       </c>
       <c r="I54">
-        <v>0.37699065441859902</v>
+        <v>0.37656807706039502</v>
       </c>
       <c r="L54">
-        <v>460155351.101987</v>
+        <v>502355393.57423699</v>
       </c>
       <c r="M54">
         <v>2020</v>
@@ -14388,28 +14392,28 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>1116719453.07145</v>
+        <v>1051458193.55795</v>
       </c>
       <c r="D55">
-        <v>39205175.107917801</v>
+        <v>190744045.32439199</v>
       </c>
       <c r="E55">
-        <v>290865362.66926998</v>
+        <v>289827825.66926998</v>
       </c>
       <c r="F55">
-        <v>38642845.055200003</v>
+        <v>51846629.642664999</v>
       </c>
       <c r="G55">
-        <v>1155924628.1793699</v>
+        <v>1242202238.88234</v>
       </c>
       <c r="H55">
-        <v>329508207.72447002</v>
+        <v>341674455.31193501</v>
       </c>
       <c r="I55">
-        <v>2.6044397234668799</v>
+        <v>2.48936909316205</v>
       </c>
       <c r="L55">
-        <v>443828520.10899001</v>
+        <v>499002836.62013102</v>
       </c>
       <c r="M55">
         <v>2020</v>
@@ -14426,28 +14430,28 @@
         <v>88</v>
       </c>
       <c r="C56">
-        <v>39782237.931750603</v>
+        <v>38182718.039250597</v>
       </c>
       <c r="D56">
-        <v>31680827.765779998</v>
+        <v>38398592.209279999</v>
       </c>
       <c r="E56">
-        <v>36063.565020000002</v>
+        <v>25239.265019999999</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1775472.858</v>
       </c>
       <c r="G56">
-        <v>71463065.697530597</v>
+        <v>76581310.248530596</v>
       </c>
       <c r="H56">
-        <v>36063.565020000002</v>
+        <v>1800712.1230200001</v>
       </c>
       <c r="I56">
-        <v>0.29584755237729199</v>
+        <v>0.29823788617334002</v>
       </c>
       <c r="L56">
-        <v>241553682.372177</v>
+        <v>256779281.90525201</v>
       </c>
       <c r="M56">
         <v>2020</v>
@@ -14467,7 +14471,7 @@
         <v>1298733.2163839999</v>
       </c>
       <c r="D57">
-        <v>7005094</v>
+        <v>7624790</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -14476,16 +14480,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>8303827.2163840001</v>
+        <v>8923523.2163839992</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0.69904095257841203</v>
+        <v>0.65574984627706301</v>
       </c>
       <c r="L57">
-        <v>11878885.186562199</v>
+        <v>13608120.9428354</v>
       </c>
       <c r="M57">
         <v>2016</v>
@@ -14505,7 +14509,7 @@
         <v>16330400.352189699</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>2410422.8443900002</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -14514,16 +14518,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>16330400.352189699</v>
+        <v>18740823.196579698</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0.28150053357479099</v>
+        <v>0.265956383088854</v>
       </c>
       <c r="L58">
-        <v>58011969.4439262</v>
+        <v>70465777.053068697</v>
       </c>
       <c r="M58">
         <v>2016</v>
@@ -14540,10 +14544,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>57594925.008577503</v>
+        <v>57003456.068577498</v>
       </c>
       <c r="D59">
-        <v>3283148.9287999999</v>
+        <v>4936953.8688000003</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -14552,16 +14556,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>60878073.937377498</v>
+        <v>61940409.937377498</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0.92219550769126002</v>
+        <v>0.84459985889359801</v>
       </c>
       <c r="L59">
-        <v>66014281.602593496</v>
+        <v>73336988.261539295</v>
       </c>
       <c r="M59">
         <v>2016</v>
@@ -14581,7 +14585,7 @@
         <v>2955709.8740542899</v>
       </c>
       <c r="D60">
-        <v>1133772.672</v>
+        <v>6995199.8773699999</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -14590,16 +14594,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>4089482.5460542901</v>
+        <v>9950909.7514242902</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0.29628448223112103</v>
+        <v>0.32453947948405198</v>
       </c>
       <c r="L60">
-        <v>13802553.934850501</v>
+        <v>30661630.958563499</v>
       </c>
       <c r="M60">
         <v>2016</v>
@@ -14619,7 +14623,7 @@
         <v>3289012.5151240001</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2655840</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -14628,16 +14632,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3289012.5151240001</v>
+        <v>5944852.5151239997</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0.34199918620203801</v>
+        <v>0.35327666786427597</v>
       </c>
       <c r="L61">
-        <v>9617018.54220495</v>
+        <v>16827753.0216287</v>
       </c>
       <c r="M61">
         <v>2016</v>
@@ -14654,10 +14658,10 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>64745829.695147999</v>
+        <v>63829076.055147998</v>
       </c>
       <c r="D62">
-        <v>3679.3679999999999</v>
+        <v>1952952.83293</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -14666,16 +14670,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>64749509.063147999</v>
+        <v>65782028.888077997</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0.86446754420604699</v>
+        <v>0.82725706501747998</v>
       </c>
       <c r="L62">
-        <v>74901029.537917405</v>
+        <v>79518243.687272802</v>
       </c>
       <c r="M62">
         <v>2016</v>
@@ -14710,16 +14714,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0.34524673292590102</v>
+        <v>0.33202129643113198</v>
       </c>
       <c r="J63">
-        <v>56512218.046184398</v>
+        <v>66017518.821158603</v>
       </c>
       <c r="K63">
-        <v>0.35596032681554401</v>
+        <v>0.31684611665293</v>
       </c>
       <c r="L63">
-        <v>20116107.604791101</v>
+        <v>20917394.4695458</v>
       </c>
       <c r="M63">
         <v>2016</v>
@@ -14739,7 +14743,7 @@
         <v>2316357.4089159998</v>
       </c>
       <c r="D64">
-        <v>3400300</v>
+        <v>4351976</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -14748,22 +14752,22 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>5716657.4089160003</v>
+        <v>6668333.4089160003</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0.1843675681751</v>
+        <v>0.19788452139138299</v>
       </c>
       <c r="J64">
-        <v>56252617.7590997</v>
+        <v>65675821.818554603</v>
       </c>
       <c r="K64">
-        <v>0.55120722504228703</v>
+        <v>0.513097578597979</v>
       </c>
       <c r="L64">
-        <v>31006849.336357798</v>
+        <v>33698105.147532597</v>
       </c>
       <c r="M64">
         <v>2016</v>
@@ -14780,10 +14784,10 @@
         <v>13</v>
       </c>
       <c r="C65">
-        <v>55659581.102229603</v>
+        <v>54774966.7222296</v>
       </c>
       <c r="D65">
-        <v>5203762.2208000002</v>
+        <v>6088376.6008000001</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -14798,16 +14802,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0.83508884602933797</v>
+        <v>0.777741297054794</v>
       </c>
       <c r="J65">
-        <v>57008076.852550998</v>
+        <v>66413607.834670097</v>
       </c>
       <c r="K65">
-        <v>1.27845878471657</v>
+        <v>1.1783208752888099</v>
       </c>
       <c r="L65">
-        <v>72882476.651941001</v>
+        <v>78256540.514835998</v>
       </c>
       <c r="M65">
         <v>2016</v>
@@ -14824,10 +14828,10 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>10015573.856402</v>
+        <v>9941117.2270780001</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1402376.6293240001</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -14836,22 +14840,22 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>10015573.856402</v>
+        <v>11343493.856402</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0.26714933995798701</v>
+        <v>0.26427425921052999</v>
       </c>
       <c r="J66">
-        <v>58504531.725750498</v>
+        <v>67799020.622023404</v>
       </c>
       <c r="K66">
-        <v>0.64081434448185004</v>
+        <v>0.63309452192551097</v>
       </c>
       <c r="L66">
-        <v>37490543.147054397</v>
+        <v>42923188.547717802</v>
       </c>
       <c r="M66">
         <v>2016</v>
@@ -14868,10 +14872,10 @@
         <v>15</v>
       </c>
       <c r="C67">
-        <v>8610641.6863119993</v>
+        <v>8515984.2399780005</v>
       </c>
       <c r="D67">
-        <v>1355200</v>
+        <v>2501127.4463340002</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -14880,22 +14884,22 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>9965841.6863119993</v>
+        <v>11017111.686311999</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0.26903506567463698</v>
+        <v>0.26114102281163598</v>
       </c>
       <c r="J67">
-        <v>59950801.614009701</v>
+        <v>69067349.066252798</v>
       </c>
       <c r="K67">
-        <v>0.61788848289423404</v>
+        <v>0.61082930438208705</v>
       </c>
       <c r="L67">
-        <v>37042909.857573703</v>
+        <v>42188360.785654001</v>
       </c>
       <c r="M67">
         <v>2016</v>
@@ -14912,10 +14916,10 @@
         <v>16</v>
       </c>
       <c r="C68">
-        <v>418455180.94726503</v>
+        <v>407236382.58172899</v>
       </c>
       <c r="D68">
-        <v>9973188.0351539999</v>
+        <v>118327176.18569</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -14924,22 +14928,22 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>428428368.98241901</v>
+        <v>525563558.76741898</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>6.6936242407533699</v>
+        <v>6.8955583024751999</v>
       </c>
       <c r="J68">
-        <v>60925408.640410401</v>
+        <v>70256235.805068895</v>
       </c>
       <c r="K68">
-        <v>1.0505541458728</v>
+        <v>1.0848530954259901</v>
       </c>
       <c r="L68">
-        <v>64005440.636177599</v>
+        <v>76217694.886107296</v>
       </c>
       <c r="M68">
         <v>2016</v>
@@ -14956,10 +14960,10 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>2509212.6906183399</v>
+        <v>2242956.4198043402</v>
       </c>
       <c r="D69">
-        <v>2937625</v>
+        <v>3734200.550814</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -14968,22 +14972,22 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>5446837.6906183399</v>
+        <v>5977156.9706183402</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0.69904095257841203</v>
+        <v>0.65574984627706301</v>
       </c>
       <c r="J69">
-        <v>62760304.510975897</v>
+        <v>72382888.3347027</v>
       </c>
       <c r="K69">
-        <v>0.12415287265137701</v>
+        <v>0.125927492264227</v>
       </c>
       <c r="L69">
-        <v>7791872.0935128098</v>
+        <v>9114995.6108307205</v>
       </c>
       <c r="M69">
         <v>2017</v>
@@ -15000,10 +15004,10 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <v>9618149.9879214503</v>
+        <v>9591235.45192145</v>
       </c>
       <c r="D70">
-        <v>3338833</v>
+        <v>3895225.927927</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -15012,22 +15016,22 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>12956982.987921501</v>
+        <v>13486461.379848501</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0.28150053357479099</v>
+        <v>0.265956383088854</v>
       </c>
       <c r="J70">
-        <v>65033876.069719397</v>
+        <v>74844539.027599007</v>
       </c>
       <c r="K70">
-        <v>0.70775839125330497</v>
+        <v>0.67752835762303598</v>
       </c>
       <c r="L70">
-        <v>46028271.5040714</v>
+        <v>50709297.604422398</v>
       </c>
       <c r="M70">
         <v>2017</v>
@@ -15044,10 +15048,10 @@
         <v>19</v>
       </c>
       <c r="C71">
-        <v>67010791.998854198</v>
+        <v>66428806.638854198</v>
       </c>
       <c r="D71">
-        <v>15371717.545621701</v>
+        <v>18472829.502027601</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -15056,22 +15060,22 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>82382509.544475794</v>
+        <v>84901636.140881807</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0.92219550769126002</v>
+        <v>0.84459985889359801</v>
       </c>
       <c r="J71">
-        <v>65504396.893071003</v>
+        <v>75588069.175956905</v>
       </c>
       <c r="K71">
-        <v>1.3637713502186199</v>
+        <v>1.3298780050134</v>
       </c>
       <c r="L71">
-        <v>89333019.796119496</v>
+        <v>100522910.638537</v>
       </c>
       <c r="M71">
         <v>2017</v>
@@ -15088,10 +15092,10 @@
         <v>20</v>
       </c>
       <c r="C72">
-        <v>5225846.8957442902</v>
+        <v>5161961.7117442898</v>
       </c>
       <c r="D72">
-        <v>13274117</v>
+        <v>15077628.732654</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -15100,22 +15104,22 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>18499963.895744301</v>
+        <v>20239590.444398299</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0.29628448223112103</v>
+        <v>0.32453947948405198</v>
       </c>
       <c r="J72">
-        <v>65504785.987140603</v>
+        <v>75823731.855416298</v>
       </c>
       <c r="K72">
-        <v>0.95321077443329905</v>
+        <v>0.82248697541673899</v>
       </c>
       <c r="L72">
-        <v>62439867.7798898</v>
+        <v>62364031.878571197</v>
       </c>
       <c r="M72">
         <v>2017</v>
@@ -15132,10 +15136,10 @@
         <v>21</v>
       </c>
       <c r="C73">
-        <v>12820177.303377001</v>
+        <v>12493124.155076999</v>
       </c>
       <c r="D73">
-        <v>10768831.180278299</v>
+        <v>13602930.328578399</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -15144,22 +15148,22 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>23589008.483655401</v>
+        <v>26096054.483655401</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0.34199918620203801</v>
+        <v>0.35327666786427597</v>
       </c>
       <c r="J73">
-        <v>66202429.050203301</v>
+        <v>76608397.783029199</v>
       </c>
       <c r="K73">
-        <v>1.04186317830377</v>
+        <v>0.96423638545636703</v>
       </c>
       <c r="L73">
-        <v>68973873.141674697</v>
+        <v>73868604.573911607</v>
       </c>
       <c r="M73">
         <v>2017</v>
@@ -15176,10 +15180,10 @@
         <v>22</v>
       </c>
       <c r="C74">
-        <v>62472862.728233099</v>
+        <v>59844570.815633103</v>
       </c>
       <c r="D74">
-        <v>5367219</v>
+        <v>14319537.8355</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -15188,22 +15192,22 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>67840081.728233099</v>
+        <v>74164108.651133105</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0.86446754420604699</v>
+        <v>0.82725706501747998</v>
       </c>
       <c r="J74">
-        <v>76802265.843781307</v>
+        <v>86813837.732069701</v>
       </c>
       <c r="K74">
-        <v>1.0217946793069199</v>
+        <v>1.0326766122595401</v>
       </c>
       <c r="L74">
-        <v>78476146.597891703</v>
+        <v>89650619.846403003</v>
       </c>
       <c r="M74">
         <v>2017</v>
@@ -15220,10 +15224,10 @@
         <v>23</v>
       </c>
       <c r="C75">
-        <v>39470407.658228502</v>
+        <v>39450350.038228497</v>
       </c>
       <c r="D75">
-        <v>8421541</v>
+        <v>10152251.339669</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -15232,22 +15236,22 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>47891948.658228502</v>
+        <v>49602601.377897501</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0.34524673292590102</v>
+        <v>0.33202129643113198</v>
       </c>
       <c r="J75">
-        <v>96653457.503272995</v>
+        <v>106240579.243691</v>
       </c>
       <c r="K75">
-        <v>1.43521027994683</v>
+        <v>1.4062032019519199</v>
       </c>
       <c r="L75">
-        <v>138718035.80110201</v>
+        <v>149395842.70970401</v>
       </c>
       <c r="M75">
         <v>2017</v>
@@ -15264,10 +15268,10 @@
         <v>24</v>
       </c>
       <c r="C76">
-        <v>17622065.590269402</v>
+        <v>17503295.906269401</v>
       </c>
       <c r="D76">
-        <v>1713381</v>
+        <v>5587073.1840000004</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -15276,22 +15280,22 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>19335446.590269402</v>
+        <v>23090369.090269402</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>0.1843675681751</v>
+        <v>0.19788452139138299</v>
       </c>
       <c r="J76">
-        <v>106588626.012723</v>
+        <v>116158089.112011</v>
       </c>
       <c r="K76">
-        <v>0.98391779703220905</v>
+        <v>1.0045454507214999</v>
       </c>
       <c r="L76">
-        <v>104874446.095128</v>
+        <v>116686079.98197301</v>
       </c>
       <c r="M76">
         <v>2017</v>
@@ -15308,10 +15312,10 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>50811651.856715098</v>
+        <v>48613655.105215102</v>
       </c>
       <c r="D77">
-        <v>7725402.0454000002</v>
+        <v>13672376.09705</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -15320,22 +15324,22 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>58537053.902115099</v>
+        <v>62286031.202265099</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0.83508884602933797</v>
+        <v>0.777741297054794</v>
       </c>
       <c r="J77">
-        <v>107335711.61698499</v>
+        <v>116804649.10362799</v>
       </c>
       <c r="K77">
-        <v>0.65306128449304002</v>
+        <v>0.68563877430307096</v>
       </c>
       <c r="L77">
-        <v>70096797.700562999</v>
+        <v>80085796.444311604</v>
       </c>
       <c r="M77">
         <v>2017</v>
@@ -15352,10 +15356,10 @@
         <v>26</v>
       </c>
       <c r="C78">
-        <v>7559111.2249873299</v>
+        <v>7539167.3009873303</v>
       </c>
       <c r="D78">
-        <v>4792090.3099999996</v>
+        <v>8037542.9832049999</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -15364,22 +15368,22 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>12351201.534987301</v>
+        <v>15576710.284192299</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0.26714933995798701</v>
+        <v>0.26427425921052999</v>
       </c>
       <c r="J78">
-        <v>108830126.470164</v>
+        <v>118421609.69437</v>
       </c>
       <c r="K78">
-        <v>0.42482099207130802</v>
+        <v>0.497725530508207</v>
       </c>
       <c r="L78">
-        <v>46233322.294300802</v>
+        <v>58941458.5087661</v>
       </c>
       <c r="M78">
         <v>2017</v>
@@ -15396,10 +15400,10 @@
         <v>27</v>
       </c>
       <c r="C79">
-        <v>20539978.021230798</v>
+        <v>20535469.0772308</v>
       </c>
       <c r="D79">
-        <v>3833669.5</v>
+        <v>5080408.4440000001</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -15408,22 +15412,22 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>24373647.521230798</v>
+        <v>25615877.521230798</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0.26903506567463698</v>
+        <v>0.26114102281163598</v>
       </c>
       <c r="J79">
-        <v>109379471.784345</v>
+        <v>119331780.979298</v>
       </c>
       <c r="K79">
-        <v>0.82827740750996304</v>
+        <v>0.82201173004670303</v>
       </c>
       <c r="L79">
-        <v>90596545.324346304</v>
+        <v>98092123.732347399</v>
       </c>
       <c r="M79">
         <v>2017</v>
@@ -15440,10 +15444,10 @@
         <v>28</v>
       </c>
       <c r="C80">
-        <v>644369718.64627504</v>
+        <v>628493653.10227501</v>
       </c>
       <c r="D80">
-        <v>24046927.547099002</v>
+        <v>127401698.607199</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -15452,22 +15456,22 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>668416646.19337404</v>
+        <v>755895351.70947397</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>6.6936242407533699</v>
+        <v>6.8955583024751999</v>
       </c>
       <c r="J80">
-        <v>111237179.708656</v>
+        <v>121123780.223905</v>
       </c>
       <c r="K80">
-        <v>0.89770978485942299</v>
+        <v>0.90502968304005504</v>
       </c>
       <c r="L80">
-        <v>99858704.664626196</v>
+        <v>109620616.42465401</v>
       </c>
       <c r="M80">
         <v>2017</v>
@@ -15484,10 +15488,10 @@
         <v>29</v>
       </c>
       <c r="C81">
-        <v>236305884.34546399</v>
+        <v>236306896.38946399</v>
       </c>
       <c r="D81">
-        <v>5581275.9620000003</v>
+        <v>5580263.9179999996</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -15502,16 +15506,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0.69904095257841203</v>
+        <v>0.65574984627706301</v>
       </c>
       <c r="J81">
-        <v>112377689.823622</v>
+        <v>122021063.879181</v>
       </c>
       <c r="K81">
-        <v>3.0791446892777699</v>
+        <v>3.0230115840877301</v>
       </c>
       <c r="L81">
-        <v>346027166.81370902</v>
+        <v>368871089.60947299</v>
       </c>
       <c r="M81">
         <v>2018</v>
@@ -15528,10 +15532,10 @@
         <v>30</v>
       </c>
       <c r="C82">
-        <v>9729662.0578661207</v>
+        <v>9397074.3058661204</v>
       </c>
       <c r="D82">
-        <v>5231042.54</v>
+        <v>6199620.5768250003</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -15540,22 +15544,22 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>14960704.597866099</v>
+        <v>15596694.8826911</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0.28150053357479099</v>
+        <v>0.265956383088854</v>
       </c>
       <c r="J82">
-        <v>111487650.967631</v>
+        <v>120998669.309871</v>
       </c>
       <c r="K82">
-        <v>0.476700997170517</v>
+        <v>0.48466489461698598</v>
       </c>
       <c r="L82">
-        <v>53146274.3884684</v>
+        <v>58643807.309863999</v>
       </c>
       <c r="M82">
         <v>2018</v>
@@ -15572,10 +15576,10 @@
         <v>31</v>
       </c>
       <c r="C83">
-        <v>87521252.738260299</v>
+        <v>82332876.727630302</v>
       </c>
       <c r="D83">
-        <v>10787589.698580001</v>
+        <v>15975965.709209999</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -15590,16 +15594,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0.92219550769126002</v>
+        <v>0.84459985889359801</v>
       </c>
       <c r="J83">
-        <v>112532374.43422</v>
+        <v>121940307.574634</v>
       </c>
       <c r="K83">
-        <v>0.94730994699579396</v>
+        <v>0.95454035065453602</v>
       </c>
       <c r="L83">
-        <v>106603037.660592</v>
+        <v>116396943.951213</v>
       </c>
       <c r="M83">
         <v>2018</v>
@@ -15616,10 +15620,10 @@
         <v>32</v>
       </c>
       <c r="C84">
-        <v>24963084.264659598</v>
+        <v>24384984.264659598</v>
       </c>
       <c r="D84">
-        <v>13476503.215</v>
+        <v>21254454.061595</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -15628,22 +15632,22 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>38439587.479659498</v>
+        <v>45639438.326254599</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0.29628448223112103</v>
+        <v>0.32453947948405198</v>
       </c>
       <c r="J84">
-        <v>114462722.259353</v>
+        <v>123763468.72505701</v>
       </c>
       <c r="K84">
-        <v>1.13345880814824</v>
+        <v>1.13626670960877</v>
       </c>
       <c r="L84">
-        <v>129738780.74948999</v>
+        <v>140628309.37798801</v>
       </c>
       <c r="M84">
         <v>2018</v>
@@ -15660,10 +15664,10 @@
         <v>33</v>
       </c>
       <c r="C85">
-        <v>9404798.7530835308</v>
+        <v>9352174.4240785297</v>
       </c>
       <c r="D85">
-        <v>7428873.6869999999</v>
+        <v>13188143.016005</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -15672,22 +15676,22 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>16833672.4400835</v>
+        <v>22540317.4400835</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0.34199918620203801</v>
+        <v>0.35327666786427597</v>
       </c>
       <c r="J85">
-        <v>116348543.330246</v>
+        <v>125505274.181399</v>
       </c>
       <c r="K85">
-        <v>0.42305112001742201</v>
+        <v>0.50837372449586404</v>
       </c>
       <c r="L85">
-        <v>49221381.568255998</v>
+        <v>63803583.679472402</v>
       </c>
       <c r="M85">
         <v>2018</v>
@@ -15704,10 +15708,10 @@
         <v>34</v>
       </c>
       <c r="C86">
-        <v>111052245.498879</v>
+        <v>108008413.11887901</v>
       </c>
       <c r="D86">
-        <v>8128162.4563887203</v>
+        <v>12719414.446388699</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -15716,22 +15720,22 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>119180407.955267</v>
+        <v>120727827.565267</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0.86446754420604699</v>
+        <v>0.82725706501747998</v>
       </c>
       <c r="J86">
-        <v>118631026.08210699</v>
+        <v>127649361.24188501</v>
       </c>
       <c r="K86">
-        <v>1.16213849802443</v>
+        <v>1.14326854552304</v>
       </c>
       <c r="L86">
-        <v>137865682.470157</v>
+        <v>145937499.56395501</v>
       </c>
       <c r="M86">
         <v>2018</v>
@@ -15751,7 +15755,7 @@
         <v>16111352.6821246</v>
       </c>
       <c r="D87">
-        <v>7812512.50825</v>
+        <v>8462337.50825</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -15760,22 +15764,22 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>23923865.190374602</v>
+        <v>24573690.190374602</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0.34524673292590102</v>
+        <v>0.33202129643113198</v>
       </c>
       <c r="J87">
-        <v>110829801.622686</v>
+        <v>119870165.969614</v>
       </c>
       <c r="K87">
-        <v>0.625237781032419</v>
+        <v>0.61743796664666895</v>
       </c>
       <c r="L87">
-        <v>69294979.238831207</v>
+        <v>74012391.537877396</v>
       </c>
       <c r="M87">
         <v>2018</v>
@@ -15795,7 +15799,7 @@
         <v>12732254.333605601</v>
       </c>
       <c r="D88">
-        <v>9210343.1807499994</v>
+        <v>10849556.280750001</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -15804,22 +15808,22 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>21942597.5143556</v>
+        <v>23581810.614355601</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0.1843675681751</v>
+        <v>0.19788452139138299</v>
       </c>
       <c r="J88">
-        <v>103030852.547199</v>
+        <v>112271645.421662</v>
       </c>
       <c r="K88">
-        <v>1.1551442382675201</v>
+        <v>1.0614394744108799</v>
       </c>
       <c r="L88">
-        <v>119015495.683688</v>
+        <v>119169556.307614</v>
       </c>
       <c r="M88">
         <v>2018</v>
@@ -15836,10 +15840,10 @@
         <v>37</v>
       </c>
       <c r="C89">
-        <v>76413269.946654096</v>
+        <v>72804727.156654105</v>
       </c>
       <c r="D89">
-        <v>4589996.2295143502</v>
+        <v>11589180.8758344</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -15848,22 +15852,22 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>81003266.176168397</v>
+        <v>84393908.032488406</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0.83508884602933797</v>
+        <v>0.777741297054794</v>
       </c>
       <c r="J89">
-        <v>102607450.235238</v>
+        <v>112075912.069084</v>
       </c>
       <c r="K89">
-        <v>0.94534635057091998</v>
+        <v>0.96819683001997903</v>
       </c>
       <c r="L89">
-        <v>96999578.621270001</v>
+        <v>108511542.78688499</v>
       </c>
       <c r="M89">
         <v>2018</v>
@@ -15880,10 +15884,10 @@
         <v>38</v>
       </c>
       <c r="C90">
-        <v>24012506.6441199</v>
+        <v>23307547.500704899</v>
       </c>
       <c r="D90">
-        <v>12200830.42</v>
+        <v>13917153.563415</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -15892,22 +15896,22 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>36213337.064119898</v>
+        <v>37224701.064119898</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0.26714933995798701</v>
+        <v>0.26427425921052999</v>
       </c>
       <c r="J90">
-        <v>100212389.04729401</v>
+        <v>109930571.79377399</v>
       </c>
       <c r="K90">
-        <v>1.3526736362941201</v>
+        <v>1.28132077505159</v>
       </c>
       <c r="L90">
-        <v>135554656.694323</v>
+        <v>140856325.45266399</v>
       </c>
       <c r="M90">
         <v>2018</v>
@@ -15942,16 +15946,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0.26903506567463698</v>
+        <v>0.26114102281163598</v>
       </c>
       <c r="J91">
-        <v>101008702.04082701</v>
+        <v>110897483.950569</v>
       </c>
       <c r="K91">
-        <v>1.6843207034905201</v>
+        <v>1.5805042673620699</v>
       </c>
       <c r="L91">
-        <v>170131048.08006999</v>
+        <v>175273946.62359101</v>
       </c>
       <c r="M91">
         <v>2018</v>
@@ -15968,10 +15972,10 @@
         <v>40</v>
       </c>
       <c r="C92">
-        <v>673914217.43924797</v>
+        <v>678838399.58723795</v>
       </c>
       <c r="D92">
-        <v>27884444.626522601</v>
+        <v>108359701.401613</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -15980,22 +15984,22 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>701798662.06577003</v>
+        <v>787198100.98885</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>6.6936242407533699</v>
+        <v>6.8955583024751999</v>
       </c>
       <c r="J92">
-        <v>100081365.558025</v>
+        <v>110126559.629933</v>
       </c>
       <c r="K92">
-        <v>1.04760601833108</v>
+        <v>1.0366270349206601</v>
       </c>
       <c r="L92">
-        <v>104845840.88137899</v>
+        <v>114160168.975191</v>
       </c>
       <c r="M92">
         <v>2018</v>
@@ -16012,10 +16016,10 @@
         <v>41</v>
       </c>
       <c r="C93">
-        <v>16062412.009413799</v>
+        <v>18500038.232413799</v>
       </c>
       <c r="D93">
-        <v>5213345.3995359996</v>
+        <v>5383686.2611819999</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -16024,22 +16028,22 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>21275757.4089498</v>
+        <v>23883724.493595801</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0.69904095257841203</v>
+        <v>0.65574984627706301</v>
       </c>
       <c r="J93">
-        <v>99009474.620072901</v>
+        <v>109338164.821211</v>
       </c>
       <c r="K93">
-        <v>0.30740126799395401</v>
+        <v>0.33311337846219502</v>
       </c>
       <c r="L93">
-        <v>30435638.041625701</v>
+        <v>36422005.478449799</v>
       </c>
       <c r="M93">
         <v>2019</v>
@@ -16056,10 +16060,10 @@
         <v>42</v>
       </c>
       <c r="C94">
-        <v>45081581.201827802</v>
+        <v>47233227.523827799</v>
       </c>
       <c r="D94">
-        <v>3315748.482872</v>
+        <v>4002410.0218719998</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -16068,22 +16072,22 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>48397329.684699804</v>
+        <v>51235637.545699798</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0.28150053357479099</v>
+        <v>0.265956383088854</v>
       </c>
       <c r="J94">
-        <v>100330877.346867</v>
+        <v>111044205.683568</v>
       </c>
       <c r="K94">
-        <v>1.7135925597517201</v>
+        <v>1.7348655564081901</v>
       </c>
       <c r="L94">
-        <v>171926244.93495399</v>
+        <v>192646767.679129</v>
       </c>
       <c r="M94">
         <v>2019</v>
@@ -16100,10 +16104,10 @@
         <v>43</v>
       </c>
       <c r="C95">
-        <v>45296150.979614802</v>
+        <v>40327831.012614802</v>
       </c>
       <c r="D95">
-        <v>9414410.8833373003</v>
+        <v>17644468.299337301</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -16112,22 +16116,22 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>54710561.862952098</v>
+        <v>57972299.311952099</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0.92219550769126002</v>
+        <v>0.84459985889359801</v>
       </c>
       <c r="J95">
-        <v>101072215.58582801</v>
+        <v>112037613.95573799</v>
       </c>
       <c r="K95">
-        <v>0.58697065096113299</v>
+        <v>0.61264045298027503</v>
       </c>
       <c r="L95">
-        <v>59326424.1764974</v>
+        <v>68638774.564672798</v>
       </c>
       <c r="M95">
         <v>2019</v>
@@ -16144,10 +16148,10 @@
         <v>44</v>
       </c>
       <c r="C96">
-        <v>15014332.702423699</v>
+        <v>14659892.7184237</v>
       </c>
       <c r="D96">
-        <v>9542066.8404479995</v>
+        <v>19827922.125301</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -16156,22 +16160,22 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>24556399.542871699</v>
+        <v>34487814.843724698</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0.29628448223112103</v>
+        <v>0.32453947948405198</v>
       </c>
       <c r="J96">
-        <v>102148082.886674</v>
+        <v>113254131.80276801</v>
       </c>
       <c r="K96">
-        <v>0.81138236559399901</v>
+        <v>0.93830512362270402</v>
       </c>
       <c r="L96">
-        <v>82881153.133480996</v>
+        <v>106266932.141978</v>
       </c>
       <c r="M96">
         <v>2019</v>
@@ -16188,10 +16192,10 @@
         <v>45</v>
       </c>
       <c r="C97">
-        <v>31281803.037819199</v>
+        <v>33434877.9474192</v>
       </c>
       <c r="D97">
-        <v>18546569.183859199</v>
+        <v>23462954.7382592</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -16200,22 +16204,22 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>49828372.221678399</v>
+        <v>56897832.6856784</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0.34199918620203801</v>
+        <v>0.35327666786427597</v>
       </c>
       <c r="J97">
-        <v>101663187.41655999</v>
+        <v>113066501.80350401</v>
       </c>
       <c r="K97">
-        <v>1.43313764985435</v>
+        <v>1.4244486986959799</v>
       </c>
       <c r="L97">
-        <v>145697341.49087101</v>
+        <v>161057431.36010799</v>
       </c>
       <c r="M97">
         <v>2019</v>
@@ -16232,10 +16236,10 @@
         <v>46</v>
       </c>
       <c r="C98">
-        <v>54803581.491490103</v>
+        <v>55722130.806490101</v>
       </c>
       <c r="D98">
-        <v>9126051.0949182808</v>
+        <v>12145997.817918301</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -16244,22 +16248,22 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>63929632.586408399</v>
+        <v>67868128.624408394</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0.86446754420604699</v>
+        <v>0.82725706501747998</v>
       </c>
       <c r="J98">
-        <v>103557859.946997</v>
+        <v>113768405.788298</v>
       </c>
       <c r="K98">
-        <v>0.71411877084418995</v>
+        <v>0.72111365086563495</v>
       </c>
       <c r="L98">
-        <v>73952611.656604499</v>
+        <v>82039950.4511628</v>
       </c>
       <c r="M98">
         <v>2019</v>
@@ -16276,10 +16280,10 @@
         <v>47</v>
       </c>
       <c r="C99">
-        <v>42415781.448081799</v>
+        <v>31570899.035181802</v>
       </c>
       <c r="D99">
-        <v>11033476.6003114</v>
+        <v>26941014.686720401</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -16288,22 +16292,22 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>53449258.048393197</v>
+        <v>58511913.721902199</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0.34524673292590102</v>
+        <v>0.33202129643113198</v>
       </c>
       <c r="J99">
-        <v>106941252.393115</v>
+        <v>115768433.184497</v>
       </c>
       <c r="K99">
-        <v>1.44766087643926</v>
+        <v>1.5222577929461001</v>
       </c>
       <c r="L99">
-        <v>154814667.16692999</v>
+        <v>176229399.59226</v>
       </c>
       <c r="M99">
         <v>2019</v>
@@ -16320,10 +16324,10 @@
         <v>48</v>
       </c>
       <c r="C100">
-        <v>18189224.712498002</v>
+        <v>18307983.921498001</v>
       </c>
       <c r="D100">
-        <v>5941645.3869000003</v>
+        <v>12280583.857899999</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -16332,22 +16336,22 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>24130870.099397998</v>
+        <v>30588567.779398002</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0.1843675681751</v>
+        <v>0.19788452139138299</v>
       </c>
       <c r="J100">
-        <v>111505001.48426101</v>
+        <v>120419394.361157</v>
       </c>
       <c r="K100">
-        <v>1.17380000389204</v>
+        <v>1.2836625744672601</v>
       </c>
       <c r="L100">
-        <v>130884571.17620701</v>
+        <v>154577869.78143099</v>
       </c>
       <c r="M100">
         <v>2019</v>
@@ -16364,10 +16368,10 @@
         <v>49</v>
       </c>
       <c r="C101">
-        <v>90960195.144754097</v>
+        <v>92664309.723154098</v>
       </c>
       <c r="D101">
-        <v>5646916.1814308502</v>
+        <v>8564639.6763888504</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -16376,22 +16380,22 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>96607111.326185003</v>
+        <v>101228949.399543</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0.83508884602933797</v>
+        <v>0.777741297054794</v>
       </c>
       <c r="J101">
-        <v>117184457.90110201</v>
+        <v>126294441.28751799</v>
       </c>
       <c r="K101">
-        <v>0.98720284445352902</v>
+        <v>1.0305885985857699</v>
       </c>
       <c r="L101">
-        <v>115684830.165713</v>
+        <v>130157611.255676</v>
       </c>
       <c r="M101">
         <v>2019</v>
@@ -16408,10 +16412,10 @@
         <v>50</v>
       </c>
       <c r="C102">
-        <v>26500712.187006101</v>
+        <v>25368838.4640061</v>
       </c>
       <c r="D102">
-        <v>19929594.947392099</v>
+        <v>24217249.5617681</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -16420,22 +16424,22 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>46430307.1343982</v>
+        <v>49586088.025774203</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0.26714933995798701</v>
+        <v>0.26427425921052999</v>
       </c>
       <c r="J102">
-        <v>120212923.36848301</v>
+        <v>129346903.731885</v>
       </c>
       <c r="K102">
-        <v>1.44576029138678</v>
+        <v>1.45060425071231</v>
       </c>
       <c r="L102">
-        <v>173799071.11767501</v>
+        <v>187631168.369948</v>
       </c>
       <c r="M102">
         <v>2019</v>
@@ -16452,10 +16456,10 @@
         <v>51</v>
       </c>
       <c r="C103">
-        <v>12874597.102732601</v>
+        <v>14792561.8147326</v>
       </c>
       <c r="D103">
-        <v>11042159.237787301</v>
+        <v>14114148.934787299</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -16464,22 +16468,22 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>23916756.340519998</v>
+        <v>28906710.74952</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0.26903506567463698</v>
+        <v>0.26114102281163598</v>
       </c>
       <c r="J103">
-        <v>121183733.027934</v>
+        <v>130320108.734717</v>
       </c>
       <c r="K103">
-        <v>0.73358267033934199</v>
+        <v>0.84939977640676001</v>
       </c>
       <c r="L103">
-        <v>88898286.476321802</v>
+        <v>110693871.22057299</v>
       </c>
       <c r="M103">
         <v>2019</v>
@@ -16496,10 +16500,10 @@
         <v>52</v>
       </c>
       <c r="C104">
-        <v>745813891.93946195</v>
+        <v>743990655.090222</v>
       </c>
       <c r="D104">
-        <v>23311372.209796201</v>
+        <v>76917648.477691203</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -16508,22 +16512,22 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>769125264.14925802</v>
+        <v>820908303.56791306</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>6.6936242407533699</v>
+        <v>6.8955583024751999</v>
       </c>
       <c r="J104">
-        <v>132347672.94519199</v>
+        <v>142362870.300713</v>
       </c>
       <c r="K104">
-        <v>0.86819931517075599</v>
+        <v>0.83623526481091004</v>
       </c>
       <c r="L104">
-        <v>114904159.015459</v>
+        <v>119048852.545158</v>
       </c>
       <c r="M104">
         <v>2019</v>
@@ -16540,10 +16544,10 @@
         <v>53</v>
       </c>
       <c r="C105">
-        <v>28827262.665807601</v>
+        <v>30569021.312807601</v>
       </c>
       <c r="D105">
-        <v>6323311.3664887901</v>
+        <v>7605158.1104887901</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -16552,22 +16556,22 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>35150574.032296397</v>
+        <v>38174179.423296399</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0.69904095257841203</v>
+        <v>0.65574984627706301</v>
       </c>
       <c r="J105">
-        <v>142298260.867704</v>
+        <v>152917451.42706701</v>
       </c>
       <c r="K105">
-        <v>0.353370434310955</v>
+        <v>0.38069262338346499</v>
       </c>
       <c r="L105">
-        <v>50283998.2445141</v>
+        <v>58214545.7448835</v>
       </c>
       <c r="M105">
         <v>2020</v>
@@ -16584,10 +16588,10 @@
         <v>54</v>
       </c>
       <c r="C106">
-        <v>128116900.121746</v>
+        <v>124177256.007746</v>
       </c>
       <c r="D106">
-        <v>15935591.127097299</v>
+        <v>24390994.848097298</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -16596,16 +16600,16 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>144052491.24884301</v>
+        <v>148568250.85584301</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0.28150053357479099</v>
+        <v>0.265956383088854</v>
       </c>
       <c r="L106">
-        <v>511730792.902991</v>
+        <v>558618857.46208096</v>
       </c>
       <c r="M106">
         <v>2020</v>
@@ -16622,28 +16626,28 @@
         <v>55</v>
       </c>
       <c r="C107">
-        <v>90985564.340235695</v>
+        <v>76897421.678887799</v>
       </c>
       <c r="D107">
-        <v>4376789.9627612401</v>
+        <v>24743390.5556002</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>78320.537482824002</v>
       </c>
       <c r="G107">
-        <v>95362354.302996993</v>
+        <v>101640812.234488</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>78320.537482824002</v>
       </c>
       <c r="I107">
-        <v>0.92219550769126002</v>
+        <v>0.84459985889359801</v>
       </c>
       <c r="L107">
-        <v>103407957.97383501</v>
+        <v>120341971.60254601</v>
       </c>
       <c r="M107">
         <v>2020</v>
@@ -16660,28 +16664,28 @@
         <v>56</v>
       </c>
       <c r="C108">
-        <v>47891614.334557503</v>
+        <v>51494486.403557502</v>
       </c>
       <c r="D108">
-        <v>8696163.9854199998</v>
+        <v>12583914.18242</v>
       </c>
       <c r="E108">
-        <v>2402277.13</v>
+        <v>1699246</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1420151.13</v>
       </c>
       <c r="G108">
-        <v>56587778.3199775</v>
+        <v>64078400.585977502</v>
       </c>
       <c r="H108">
-        <v>2402277.13</v>
+        <v>3119397.13</v>
       </c>
       <c r="I108">
-        <v>0.29628448223112103</v>
+        <v>0.32453947948405198</v>
       </c>
       <c r="L108">
-        <v>190991367.12747401</v>
+        <v>197444085.039664</v>
       </c>
       <c r="M108">
         <v>2020</v>
@@ -16698,28 +16702,28 @@
         <v>57</v>
       </c>
       <c r="C109">
-        <v>37413725.206730202</v>
+        <v>36626784.1177302</v>
       </c>
       <c r="D109">
-        <v>3682700.0646640002</v>
+        <v>14037382.893664001</v>
       </c>
       <c r="E109">
-        <v>1170979.8899999999</v>
+        <v>563886</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>876013.89</v>
       </c>
       <c r="G109">
-        <v>41096425.271394201</v>
+        <v>50664167.011394203</v>
       </c>
       <c r="H109">
-        <v>1170979.8899999999</v>
+        <v>1439899.89</v>
       </c>
       <c r="I109">
-        <v>0.34199918620203801</v>
+        <v>0.35327666786427597</v>
       </c>
       <c r="L109">
-        <v>120165272.110081</v>
+        <v>143412151.494982</v>
       </c>
       <c r="M109">
         <v>2020</v>
@@ -16736,28 +16740,28 @@
         <v>58</v>
       </c>
       <c r="C110">
-        <v>334498346.72885299</v>
+        <v>347177935.62358302</v>
       </c>
       <c r="D110">
-        <v>6097790.8220374295</v>
+        <v>15950136.2590324</v>
       </c>
       <c r="E110">
-        <v>6524583</v>
+        <v>6410279</v>
       </c>
       <c r="F110">
-        <v>104244.92</v>
+        <v>218548.92</v>
       </c>
       <c r="G110">
-        <v>340596137.55089098</v>
+        <v>363128071.88261598</v>
       </c>
       <c r="H110">
         <v>6628827.9199999999</v>
       </c>
       <c r="I110">
-        <v>0.86446754420604699</v>
+        <v>0.82725706501747998</v>
       </c>
       <c r="L110">
-        <v>393995286.27035302</v>
+        <v>438954331.41443503</v>
       </c>
       <c r="M110">
         <v>2020</v>
@@ -16777,25 +16781,25 @@
         <v>11014511.1035631</v>
       </c>
       <c r="D111">
-        <v>4582352.1206211001</v>
+        <v>5547406.3926060405</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>73647.381083706001</v>
       </c>
       <c r="G111">
-        <v>15596863.2241842</v>
+        <v>16561917.4961692</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>73647.381083706001</v>
       </c>
       <c r="I111">
-        <v>0.34524673292590102</v>
+        <v>0.33202129643113198</v>
       </c>
       <c r="L111">
-        <v>45175990.782023601</v>
+        <v>49882093.932503097</v>
       </c>
       <c r="M111">
         <v>2020</v>
@@ -16812,10 +16816,10 @@
         <v>5</v>
       </c>
       <c r="C112">
-        <v>19209149.46903</v>
+        <v>19237510.520429999</v>
       </c>
       <c r="D112">
-        <v>3109788.0304</v>
+        <v>3572056.9012000002</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -16824,16 +16828,16 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>22318937.499430001</v>
+        <v>22809567.421629999</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0.30636363275177497</v>
+        <v>0.30973196588343499</v>
       </c>
       <c r="L112">
-        <v>72851132.162652895</v>
+        <v>73642923.346872807</v>
       </c>
       <c r="M112">
         <v>2016</v>
@@ -16850,10 +16854,10 @@
         <v>6</v>
       </c>
       <c r="C113">
-        <v>24770907.873950399</v>
+        <v>24788555.9307504</v>
       </c>
       <c r="D113">
-        <v>678960</v>
+        <v>1462151.5214839999</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -16862,16 +16866,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>25449867.873950399</v>
+        <v>26250707.452234399</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0.44106704730016</v>
+        <v>0.40990656254282998</v>
       </c>
       <c r="L113">
-        <v>57700678.456332304</v>
+        <v>64040710.3740661</v>
       </c>
       <c r="M113">
         <v>2016</v>
@@ -16888,10 +16892,10 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>72228202.143794402</v>
+        <v>27961440.752194401</v>
       </c>
       <c r="D114">
-        <v>14461511.448960001</v>
+        <v>60000278.953960001</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -16900,16 +16904,16 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>86689713.592754394</v>
+        <v>87961719.706154406</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1.06973557925282</v>
+        <v>0.986802227265134</v>
       </c>
       <c r="L114">
-        <v>81038450.318072706</v>
+        <v>89138144.681670696</v>
       </c>
       <c r="M114">
         <v>2016</v>
@@ -16926,10 +16930,10 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>7041773.0864551999</v>
+        <v>1658621.2486552</v>
       </c>
       <c r="D115">
-        <v>20082086.311999999</v>
+        <v>35567321.384850003</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -16938,16 +16942,16 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>27123859.398455199</v>
+        <v>37225942.633505203</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0.50264996998289702</v>
+        <v>0.509304931436526</v>
       </c>
       <c r="L115">
-        <v>53961724.8945188</v>
+        <v>73091659.506431997</v>
       </c>
       <c r="M115">
         <v>2016</v>
@@ -16964,10 +16968,10 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>21913575.019405998</v>
+        <v>21788435.711925998</v>
       </c>
       <c r="D116">
-        <v>132792</v>
+        <v>5684674.9422800001</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -16976,16 +16980,16 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>22046367.019405998</v>
+        <v>27473110.654206</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0.52297590834563701</v>
+        <v>0.57280682559705498</v>
       </c>
       <c r="L116">
-        <v>42155607.299668297</v>
+        <v>47962261.3183247</v>
       </c>
       <c r="M116">
         <v>2016</v>
@@ -17002,10 +17006,10 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>59811024.531162001</v>
+        <v>40332231.108121999</v>
       </c>
       <c r="D117">
-        <v>17218301.731199998</v>
+        <v>54266490.829839997</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -17014,16 +17018,16 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>77029326.262362003</v>
+        <v>94598721.937961996</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1.3850022272373499</v>
+        <v>1.2414364345567299</v>
       </c>
       <c r="L117">
-        <v>55616752.628630497</v>
+        <v>76201019.484126404</v>
       </c>
       <c r="M117">
         <v>2016</v>
@@ -17040,10 +17044,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>9898952.8966504298</v>
+        <v>9846483.6860104296</v>
       </c>
       <c r="D118">
-        <v>4016437.8144</v>
+        <v>12179392.189549999</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -17052,22 +17056,22 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>13915390.711050401</v>
+        <v>22025875.875560399</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0.40051575540263201</v>
+        <v>0.406488497800364</v>
       </c>
       <c r="J118">
-        <v>84590578.231402397</v>
+        <v>112433865.23224799</v>
       </c>
       <c r="K118">
-        <v>0.41072752313643501</v>
+        <v>0.48193424291467901</v>
       </c>
       <c r="L118">
-        <v>34743678.677662797</v>
+        <v>54185729.718674198</v>
       </c>
       <c r="M118">
         <v>2016</v>
@@ -17084,10 +17088,10 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>23661305.414156899</v>
+        <v>23792885.468208902</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>4982293.1167440005</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -17096,22 +17100,22 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>23661305.414156899</v>
+        <v>28775178.584952898</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0.46607832480376599</v>
+        <v>0.48946767915053901</v>
       </c>
       <c r="J119">
-        <v>87870153.113008305</v>
+        <v>115922580.957094</v>
       </c>
       <c r="K119">
-        <v>0.57774794826530596</v>
+        <v>0.50713778124905495</v>
       </c>
       <c r="L119">
-        <v>50766800.674798802</v>
+        <v>58788720.503244802</v>
       </c>
       <c r="M119">
         <v>2016</v>
@@ -17128,10 +17132,10 @@
         <v>13</v>
       </c>
       <c r="C120">
-        <v>52328075.818873897</v>
+        <v>26110141.1292339</v>
       </c>
       <c r="D120">
-        <v>111703.71520000001</v>
+        <v>29480359.318085998</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -17140,22 +17144,22 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>52439779.534073897</v>
+        <v>55590500.447319798</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1.6270814552453099</v>
+        <v>1.4019958549220899</v>
       </c>
       <c r="J120">
-        <v>93920492.399669796</v>
+        <v>122779929.61315501</v>
       </c>
       <c r="K120">
-        <v>0.34315568736913599</v>
+        <v>0.32294344518717799</v>
       </c>
       <c r="L120">
-        <v>32229351.127456401</v>
+        <v>39650973.469111398</v>
       </c>
       <c r="M120">
         <v>2016</v>
@@ -17172,10 +17176,10 @@
         <v>14</v>
       </c>
       <c r="C121">
-        <v>12549075.566923499</v>
+        <v>11679973.745731501</v>
       </c>
       <c r="D121">
-        <v>606561.31200000003</v>
+        <v>4400842.7783920001</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -17184,22 +17188,22 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>13155636.8789235</v>
+        <v>16080816.524123499</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>0.44405596333277803</v>
+        <v>0.41693440034476897</v>
       </c>
       <c r="J121">
-        <v>98633253.336759806</v>
+        <v>129240110.16970301</v>
       </c>
       <c r="K121">
-        <v>0.30036602882117502</v>
+        <v>0.298430391038909</v>
       </c>
       <c r="L121">
-        <v>29626078.614475399</v>
+        <v>38569176.6158562</v>
       </c>
       <c r="M121">
         <v>2016</v>
@@ -17216,10 +17220,10 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>12284539.5742009</v>
+        <v>12545575.464168901</v>
       </c>
       <c r="D122">
-        <v>1245489.869888</v>
+        <v>5624258.5679160003</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -17228,22 +17232,22 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>13530029.4440889</v>
+        <v>18169834.032084901</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0.42045046570769401</v>
+        <v>0.401908192853423</v>
       </c>
       <c r="J122">
-        <v>102787209.244967</v>
+        <v>135555396.130721</v>
       </c>
       <c r="K122">
-        <v>0.31307243354377601</v>
+        <v>0.33350879449298698</v>
       </c>
       <c r="L122">
-        <v>32179841.735495299</v>
+        <v>45208916.750575997</v>
       </c>
       <c r="M122">
         <v>2016</v>
@@ -17260,10 +17264,10 @@
         <v>16</v>
       </c>
       <c r="C123">
-        <v>539706266.70548296</v>
+        <v>494676830.00220299</v>
       </c>
       <c r="D123">
-        <v>89532691.932629004</v>
+        <v>407713749.65553498</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -17272,22 +17276,22 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>629238958.63811195</v>
+        <v>902390579.65773797</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>4.4140236706371798</v>
+        <v>4.8532164276471104</v>
       </c>
       <c r="J123">
-        <v>109987411.41026101</v>
+        <v>143557820.14528501</v>
       </c>
       <c r="K123">
-        <v>1.2960983715651999</v>
+        <v>1.29520358785267</v>
       </c>
       <c r="L123">
-        <v>142554504.821511</v>
+        <v>185936603.716481</v>
       </c>
       <c r="M123">
         <v>2016</v>
@@ -17304,10 +17308,10 @@
         <v>17</v>
       </c>
       <c r="C124">
-        <v>27304392.182910401</v>
+        <v>26535091.688330401</v>
       </c>
       <c r="D124">
-        <v>11990078.336650001</v>
+        <v>15982131.452298</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -17316,22 +17320,22 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>39294470.519560397</v>
+        <v>42517223.140628397</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0.30636363275177497</v>
+        <v>0.30973196588343499</v>
       </c>
       <c r="J124">
-        <v>116842002.809769</v>
+        <v>149970011.685559</v>
       </c>
       <c r="K124">
-        <v>1.0977292534302201</v>
+        <v>0.91532313218874595</v>
       </c>
       <c r="L124">
-        <v>128260884.513659</v>
+        <v>137271020.83040899</v>
       </c>
       <c r="M124">
         <v>2017</v>
@@ -17348,10 +17352,10 @@
         <v>18</v>
       </c>
       <c r="C125">
-        <v>47928770.190857403</v>
+        <v>47947768.841101401</v>
       </c>
       <c r="D125">
-        <v>39255361.821505003</v>
+        <v>42324460.288461</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -17360,22 +17364,22 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>87184132.012362406</v>
+        <v>90272229.129562393</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0.44106704730016</v>
+        <v>0.40990656254282998</v>
       </c>
       <c r="J125">
-        <v>120841478.025538</v>
+        <v>154072303.20039001</v>
       </c>
       <c r="K125">
-        <v>1.6357495419013801</v>
+        <v>1.42937019043838</v>
       </c>
       <c r="L125">
-        <v>197666392.32295901</v>
+        <v>220226357.36682099</v>
       </c>
       <c r="M125">
         <v>2017</v>
@@ -17392,10 +17396,10 @@
         <v>19</v>
       </c>
       <c r="C126">
-        <v>89838253.846426204</v>
+        <v>36098066.010698199</v>
       </c>
       <c r="D126">
-        <v>80325338.487791702</v>
+        <v>152418499.76357201</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -17404,22 +17408,22 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>170163592.334218</v>
+        <v>188516565.77427</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1.06973557925282</v>
+        <v>0.986802227265134</v>
       </c>
       <c r="J126">
-        <v>138756347.280314</v>
+        <v>172957408.377042</v>
       </c>
       <c r="K126">
-        <v>1.14640308515032</v>
+        <v>1.1045369004999299</v>
       </c>
       <c r="L126">
-        <v>159070704.60633999</v>
+        <v>191037839.76727799</v>
       </c>
       <c r="M126">
         <v>2017</v>
@@ -17436,10 +17440,10 @@
         <v>20</v>
       </c>
       <c r="C127">
-        <v>12656117.468526199</v>
+        <v>7276380.4700552402</v>
       </c>
       <c r="D127">
-        <v>44100125.678625003</v>
+        <v>84439049.452496007</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -17448,22 +17452,22 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>56756243.147151202</v>
+        <v>91715429.9225512</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0.50264996998289702</v>
+        <v>0.509304931436526</v>
       </c>
       <c r="J127">
-        <v>156753204.99011099</v>
+        <v>192127575.67179599</v>
       </c>
       <c r="K127">
-        <v>0.72033007951875405</v>
+        <v>0.93729180985628602</v>
       </c>
       <c r="L127">
-        <v>112914048.615346</v>
+        <v>180079603.12471801</v>
       </c>
       <c r="M127">
         <v>2017</v>
@@ -17480,10 +17484,10 @@
         <v>21</v>
       </c>
       <c r="C128">
-        <v>29312249.917601399</v>
+        <v>20493861.244838402</v>
       </c>
       <c r="D128">
-        <v>62796675.150089301</v>
+        <v>104056625.184752</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -17492,22 +17496,22 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>92108925.0676907</v>
+        <v>124550486.429591</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0.52297590834563701</v>
+        <v>0.57280682559705498</v>
       </c>
       <c r="J128">
-        <v>161459175.264617</v>
+        <v>197414401.37749401</v>
       </c>
       <c r="K128">
-        <v>1.0908305725070599</v>
+        <v>1.1014338321318</v>
       </c>
       <c r="L128">
-        <v>176124604.59041899</v>
+        <v>217438900.62721899</v>
       </c>
       <c r="M128">
         <v>2017</v>
@@ -17524,10 +17528,10 @@
         <v>22</v>
       </c>
       <c r="C129">
-        <v>123141336.15574899</v>
+        <v>48335951.415888302</v>
       </c>
       <c r="D129">
-        <v>56630284.025367998</v>
+        <v>141243571.09622899</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -17536,22 +17540,22 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>179771620.181117</v>
+        <v>189579522.512117</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1.3850022272373499</v>
+        <v>1.2414364345567299</v>
       </c>
       <c r="J129">
-        <v>178671739.847583</v>
+        <v>216816011.96444499</v>
       </c>
       <c r="K129">
-        <v>0.726465165226442</v>
+        <v>0.70432902528761299</v>
       </c>
       <c r="L129">
-        <v>129798795.00967</v>
+        <v>152709810.373665</v>
       </c>
       <c r="M129">
         <v>2017</v>
@@ -17568,10 +17572,10 @@
         <v>23</v>
       </c>
       <c r="C130">
-        <v>28800987.804459501</v>
+        <v>22261005.866090499</v>
       </c>
       <c r="D130">
-        <v>46882302.576027997</v>
+        <v>58676666.401887</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -17580,22 +17584,22 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>75683290.380487502</v>
+        <v>80937672.267977506</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0.40051575540263201</v>
+        <v>0.406488497800364</v>
       </c>
       <c r="J130">
-        <v>193294165.524221</v>
+        <v>233672395.95760301</v>
       </c>
       <c r="K130">
-        <v>0.97760103976625801</v>
+        <v>0.85210877445398303</v>
       </c>
       <c r="L130">
-        <v>188964577.19723001</v>
+        <v>199114298.94315901</v>
       </c>
       <c r="M130">
         <v>2017</v>
@@ -17612,10 +17616,10 @@
         <v>24</v>
       </c>
       <c r="C131">
-        <v>19113000.646718401</v>
+        <v>18493112.832179401</v>
       </c>
       <c r="D131">
-        <v>38767810.276455</v>
+        <v>49825265.716293998</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -17624,22 +17628,22 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>57880810.923173398</v>
+        <v>68318378.548473403</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0.46607832480376599</v>
+        <v>0.48946767915053901</v>
       </c>
       <c r="J131">
-        <v>192014073.76174599</v>
+        <v>232991093.27740699</v>
       </c>
       <c r="K131">
-        <v>0.64675923553987902</v>
+        <v>0.59906536512979303</v>
       </c>
       <c r="L131">
-        <v>124186875.559045</v>
+        <v>139576894.36621901</v>
       </c>
       <c r="M131">
         <v>2017</v>
@@ -17656,10 +17660,10 @@
         <v>25</v>
       </c>
       <c r="C132">
-        <v>330319662.02239698</v>
+        <v>216850515.925138</v>
       </c>
       <c r="D132">
-        <v>117857474.117292</v>
+        <v>252439308.79830399</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -17668,22 +17672,22 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>448177136.13968903</v>
+        <v>469289824.72344202</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1.6270814552453099</v>
+        <v>1.4019958549220899</v>
       </c>
       <c r="J132">
-        <v>190474468.83263499</v>
+        <v>232101476.92469901</v>
       </c>
       <c r="K132">
-        <v>1.44611766337849</v>
+        <v>1.4421701563079801</v>
       </c>
       <c r="L132">
-        <v>275448493.80150998</v>
+        <v>334729823.25580603</v>
       </c>
       <c r="M132">
         <v>2017</v>
@@ -17700,10 +17704,10 @@
         <v>26</v>
       </c>
       <c r="C133">
-        <v>7733887.42770926</v>
+        <v>7835879.9162582597</v>
       </c>
       <c r="D133">
-        <v>41608977.880739003</v>
+        <v>54629627.405847996</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -17712,22 +17716,22 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>49342865.3084483</v>
+        <v>62465507.322106302</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0.44405596333277803</v>
+        <v>0.41693440034476897</v>
       </c>
       <c r="J133">
-        <v>191241675.72233</v>
+        <v>231914515.18245399</v>
       </c>
       <c r="K133">
-        <v>0.58103744032351801</v>
+        <v>0.64601798806145905</v>
       </c>
       <c r="L133">
-        <v>111118573.744883</v>
+        <v>149820948.50041801</v>
       </c>
       <c r="M133">
         <v>2017</v>
@@ -17744,10 +17748,10 @@
         <v>27</v>
       </c>
       <c r="C134">
-        <v>41852080.471506901</v>
+        <v>41103180.613230899</v>
       </c>
       <c r="D134">
-        <v>48434007.131187998</v>
+        <v>57565779.557625003</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -17756,22 +17760,22 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>90286087.602694899</v>
+        <v>98668960.170855895</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0.42045046570769401</v>
+        <v>0.401908192853423</v>
       </c>
       <c r="J134">
-        <v>191361438.998851</v>
+        <v>230323979.682666</v>
       </c>
       <c r="K134">
-        <v>1.12215169040298</v>
+        <v>1.0658952727403701</v>
       </c>
       <c r="L134">
-        <v>214736562.250507</v>
+        <v>245501241.14250299</v>
       </c>
       <c r="M134">
         <v>2017</v>
@@ -17788,10 +17792,10 @@
         <v>28</v>
       </c>
       <c r="C135">
-        <v>673723870.78741598</v>
+        <v>603394892.47224498</v>
       </c>
       <c r="D135">
-        <v>291860579.68327397</v>
+        <v>684135215.13354397</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -17800,22 +17804,22 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>965584450.47069001</v>
+        <v>1287530107.6057899</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>4.4140236706371798</v>
+        <v>4.8532164276471104</v>
       </c>
       <c r="J135">
-        <v>197883933.50608101</v>
+        <v>237308800.640632</v>
       </c>
       <c r="K135">
-        <v>1.1054651883528199</v>
+        <v>1.1179281447214899</v>
       </c>
       <c r="L135">
-        <v>218753799.825297</v>
+        <v>265294187.226264</v>
       </c>
       <c r="M135">
         <v>2017</v>
@@ -17832,10 +17836,10 @@
         <v>29</v>
       </c>
       <c r="C136">
-        <v>25868944.082957201</v>
+        <v>26599536.732402999</v>
       </c>
       <c r="D136">
-        <v>28018250.843341202</v>
+        <v>35331374.295978203</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -17844,22 +17848,22 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>53887194.926298402</v>
+        <v>61930911.028381199</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0.30636363275177497</v>
+        <v>0.30973196588343499</v>
       </c>
       <c r="J136">
-        <v>204443738.06623799</v>
+        <v>245331370.09327099</v>
       </c>
       <c r="K136">
-        <v>0.86034879259109698</v>
+        <v>0.81502016758479001</v>
       </c>
       <c r="L136">
-        <v>175892923.19809899</v>
+        <v>199950014.36722401</v>
       </c>
       <c r="M136">
         <v>2018</v>
@@ -17876,10 +17880,10 @@
         <v>30</v>
       </c>
       <c r="C137">
-        <v>14156486.9613724</v>
+        <v>13124130.009072401</v>
       </c>
       <c r="D137">
-        <v>27712718.344852202</v>
+        <v>41383146.908025198</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -17888,22 +17892,22 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>41869205.306224599</v>
+        <v>54507276.917097598</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0.44106704730016</v>
+        <v>0.40990656254282998</v>
       </c>
       <c r="J137">
-        <v>203989459.04282701</v>
+        <v>245687237.88081601</v>
       </c>
       <c r="K137">
-        <v>0.465352851403593</v>
+        <v>0.54123642509418002</v>
       </c>
       <c r="L137">
-        <v>94927076.421856001</v>
+        <v>132974882.321876</v>
       </c>
       <c r="M137">
         <v>2018</v>
@@ -17920,10 +17924,10 @@
         <v>31</v>
       </c>
       <c r="C138">
-        <v>138410945.638008</v>
+        <v>27767930.801994</v>
       </c>
       <c r="D138">
-        <v>40117055.103679001</v>
+        <v>175162794.719753</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -17932,22 +17936,22 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>178528000.741687</v>
+        <v>202930725.52174699</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1.06973557925282</v>
+        <v>0.986802227265134</v>
       </c>
       <c r="J138">
-        <v>200795020.40779501</v>
+        <v>242440427.68451199</v>
       </c>
       <c r="K138">
-        <v>0.83114531759140897</v>
+        <v>0.84822808034754604</v>
       </c>
       <c r="L138">
-        <v>166889841.00760999</v>
+        <v>205644778.57347199</v>
       </c>
       <c r="M138">
         <v>2018</v>
@@ -17964,10 +17968,10 @@
         <v>32</v>
       </c>
       <c r="C139">
-        <v>23533342.262024298</v>
+        <v>13345183.725122301</v>
       </c>
       <c r="D139">
-        <v>43271457.830334701</v>
+        <v>59469004.636070698</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -17976,22 +17980,22 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>66804800.092358999</v>
+        <v>72814188.361193001</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>0.50264996998289702</v>
+        <v>0.509304931436526</v>
       </c>
       <c r="J139">
-        <v>199907981.02231199</v>
+        <v>240792987.05630901</v>
       </c>
       <c r="K139">
-        <v>0.66483193851495304</v>
+        <v>0.59373725101362096</v>
       </c>
       <c r="L139">
-        <v>132905210.547674</v>
+        <v>142967766.198172</v>
       </c>
       <c r="M139">
         <v>2018</v>
@@ -18008,10 +18012,10 @@
         <v>33</v>
       </c>
       <c r="C140">
-        <v>37843639.685934</v>
+        <v>36848659.948983997</v>
       </c>
       <c r="D140">
-        <v>47091047.073065601</v>
+        <v>68430216.047059596</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -18020,22 +18024,22 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>84934686.758999601</v>
+        <v>105278875.996044</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0.52297590834563701</v>
+        <v>0.57280682559705498</v>
       </c>
       <c r="J140">
-        <v>201990624.17256001</v>
+        <v>242436885.000177</v>
       </c>
       <c r="K140">
-        <v>0.80402989235058597</v>
+        <v>0.75811372617658901</v>
       </c>
       <c r="L140">
-        <v>162406499.80929101</v>
+        <v>183794730.25012901</v>
       </c>
       <c r="M140">
         <v>2018</v>
@@ -18052,10 +18056,10 @@
         <v>34</v>
       </c>
       <c r="C141">
-        <v>250518068.04104099</v>
+        <v>167281289.18783101</v>
       </c>
       <c r="D141">
-        <v>92967658.622292101</v>
+        <v>209205546.749017</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -18064,22 +18068,22 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>343485726.663333</v>
+        <v>376486835.93684798</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>1.3850022272373499</v>
+        <v>1.2414364345567299</v>
       </c>
       <c r="J141">
-        <v>188631776.80560699</v>
+        <v>226973511.90081099</v>
       </c>
       <c r="K141">
-        <v>1.3147505693718</v>
+        <v>1.3361343549883</v>
       </c>
       <c r="L141">
-        <v>248003735.95678601</v>
+        <v>303267106.92301899</v>
       </c>
       <c r="M141">
         <v>2018</v>
@@ -18096,10 +18100,10 @@
         <v>35</v>
       </c>
       <c r="C142">
-        <v>31555531.427166499</v>
+        <v>31775812.4452805</v>
       </c>
       <c r="D142">
-        <v>37848961.914872698</v>
+        <v>54796213.261289701</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -18108,22 +18112,22 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>69404493.342039198</v>
+        <v>86572025.706570193</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0.40051575540263201</v>
+        <v>0.406488497800364</v>
       </c>
       <c r="J142">
-        <v>174500514.688117</v>
+        <v>211381291.73884299</v>
       </c>
       <c r="K142">
-        <v>0.99305035500705596</v>
+        <v>1.0075411000868499</v>
       </c>
       <c r="L142">
-        <v>173287798.05994901</v>
+        <v>212975339.216333</v>
       </c>
       <c r="M142">
         <v>2018</v>
@@ -18140,10 +18144,10 @@
         <v>36</v>
       </c>
       <c r="C143">
-        <v>21929616.769469202</v>
+        <v>21273251.416892201</v>
       </c>
       <c r="D143">
-        <v>31327294.630286202</v>
+        <v>49951600.594078198</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -18152,22 +18156,22 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>53256911.399755403</v>
+        <v>71224852.010970399</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0.46607832480376599</v>
+        <v>0.48946767915053901</v>
       </c>
       <c r="J143">
-        <v>174476977.91389799</v>
+        <v>212341040.13117301</v>
       </c>
       <c r="K143">
-        <v>0.65490595520245998</v>
+        <v>0.68528873958018</v>
       </c>
       <c r="L143">
-        <v>114266011.88154</v>
+        <v>145514923.75263599</v>
       </c>
       <c r="M143">
         <v>2018</v>
@@ -18184,10 +18188,10 @@
         <v>37</v>
       </c>
       <c r="C144">
-        <v>258804838.42864999</v>
+        <v>200098909.96338299</v>
       </c>
       <c r="D144">
-        <v>117329669.993687</v>
+        <v>188360996.58625901</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -18196,22 +18200,22 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>376134508.422337</v>
+        <v>388459906.54964203</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1.6270814552453099</v>
+        <v>1.4019958549220899</v>
       </c>
       <c r="J144">
-        <v>174872508.715487</v>
+        <v>213501612.06929201</v>
       </c>
       <c r="K144">
-        <v>1.32194182625606</v>
+        <v>1.29777174104368</v>
       </c>
       <c r="L144">
-        <v>231171283.53332999</v>
+        <v>277076358.81079698</v>
       </c>
       <c r="M144">
         <v>2018</v>
@@ -18228,10 +18232,10 @@
         <v>38</v>
       </c>
       <c r="C145">
-        <v>10986084.0799571</v>
+        <v>10385201.3688382</v>
       </c>
       <c r="D145">
-        <v>89110463.694247901</v>
+        <v>93371649.050200805</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -18240,22 +18244,22 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>100096547.774205</v>
+        <v>103756850.419039</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0.44405596333277803</v>
+        <v>0.41693440034476897</v>
       </c>
       <c r="J145">
-        <v>177099702.493745</v>
+        <v>216729890.96989501</v>
       </c>
       <c r="K145">
-        <v>1.27280994818655</v>
+        <v>1.1482335658945499</v>
       </c>
       <c r="L145">
-        <v>225414263.154917</v>
+        <v>248856535.54429901</v>
       </c>
       <c r="M145">
         <v>2018</v>
@@ -18272,10 +18276,10 @@
         <v>39</v>
       </c>
       <c r="C146">
-        <v>38491348.250095502</v>
+        <v>38719748.191439502</v>
       </c>
       <c r="D146">
-        <v>51024492.492794901</v>
+        <v>58111419.535305902</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -18284,22 +18288,22 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>89515840.742890298</v>
+        <v>96831167.726745307</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>0.42045046570769401</v>
+        <v>0.401908192853423</v>
       </c>
       <c r="J146">
-        <v>179959359.47305399</v>
+        <v>221046142.91550899</v>
       </c>
       <c r="K146">
-        <v>1.1830704811394299</v>
+        <v>1.08994697071866</v>
       </c>
       <c r="L146">
-        <v>212904605.99733001</v>
+        <v>240928573.85980201</v>
       </c>
       <c r="M146">
         <v>2018</v>
@@ -18316,10 +18320,10 @@
         <v>40</v>
       </c>
       <c r="C147">
-        <v>429826064.25442499</v>
+        <v>457529946.735919</v>
       </c>
       <c r="D147">
-        <v>215916296.26918799</v>
+        <v>460716998.92919499</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -18328,22 +18332,22 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>645742360.52361298</v>
+        <v>918246945.66511297</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>4.4140236706371798</v>
+        <v>4.8532164276471104</v>
       </c>
       <c r="J147">
-        <v>174390826.59083799</v>
+        <v>215879656.296718</v>
       </c>
       <c r="K147">
-        <v>0.83888220705835403</v>
+        <v>0.87643177704583797</v>
       </c>
       <c r="L147">
-        <v>146293361.50125301</v>
+        <v>189203790.796177</v>
       </c>
       <c r="M147">
         <v>2018</v>
@@ -18360,10 +18364,10 @@
         <v>41</v>
       </c>
       <c r="C148">
-        <v>11707415.407932401</v>
+        <v>18681607.914132401</v>
       </c>
       <c r="D148">
-        <v>22871578.645694599</v>
+        <v>38319181.167694598</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -18372,22 +18376,22 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>34578994.053627104</v>
+        <v>57000789.081827097</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0.30636363275177497</v>
+        <v>0.30973196588343499</v>
       </c>
       <c r="J148">
-        <v>169956744.248597</v>
+        <v>211327198.18541399</v>
       </c>
       <c r="K148">
-        <v>0.66410498674839602</v>
+        <v>0.87084215463024595</v>
       </c>
       <c r="L148">
-        <v>112869121.387015</v>
+        <v>184032632.59975901</v>
       </c>
       <c r="M148">
         <v>2019</v>
@@ -18404,10 +18408,10 @@
         <v>42</v>
       </c>
       <c r="C149">
-        <v>22360259.546984799</v>
+        <v>30910336.9401288</v>
       </c>
       <c r="D149">
-        <v>38252264.0506543</v>
+        <v>51561023.339454301</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -18416,22 +18420,22 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <v>60612523.597639099</v>
+        <v>82471360.279583097</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0.44106704730016</v>
+        <v>0.40990656254282998</v>
       </c>
       <c r="J149">
-        <v>175958014.806849</v>
+        <v>218925285.69994801</v>
       </c>
       <c r="K149">
-        <v>0.78099580365488996</v>
+        <v>0.91901449517388101</v>
       </c>
       <c r="L149">
-        <v>137422471.18359399</v>
+        <v>201195510.91833499</v>
       </c>
       <c r="M149">
         <v>2019</v>
@@ -18448,10 +18452,10 @@
         <v>43</v>
       </c>
       <c r="C150">
-        <v>125440212.28030001</v>
+        <v>49053362.7227441</v>
       </c>
       <c r="D150">
-        <v>43837209.408114403</v>
+        <v>153767005.95136601</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -18460,22 +18464,22 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>169277421.68841499</v>
+        <v>202820368.67411101</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>1.06973557925282</v>
+        <v>0.986802227265134</v>
       </c>
       <c r="J150">
-        <v>174940400.22580099</v>
+        <v>219385815.20837301</v>
       </c>
       <c r="K150">
-        <v>0.90454979421813997</v>
+        <v>0.93685612985896505</v>
       </c>
       <c r="L150">
-        <v>158242303.02468801</v>
+        <v>205532945.78207001</v>
       </c>
       <c r="M150">
         <v>2019</v>
@@ -18492,10 +18496,10 @@
         <v>44</v>
       </c>
       <c r="C151">
-        <v>73231606.322705895</v>
+        <v>44216342.484306902</v>
       </c>
       <c r="D151">
-        <v>56276423.501104601</v>
+        <v>106186896.339004</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -18504,22 +18508,22 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>129508029.82381099</v>
+        <v>150403238.823311</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>0.50264996998289702</v>
+        <v>0.509304931436526</v>
       </c>
       <c r="J151">
-        <v>172118578.565918</v>
+        <v>217365311.74220499</v>
       </c>
       <c r="K151">
-        <v>1.4969361789261599</v>
+        <v>1.35859204983654</v>
       </c>
       <c r="L151">
-        <v>257650527.32066599</v>
+        <v>295310784.44319999</v>
       </c>
       <c r="M151">
         <v>2019</v>
@@ -18536,10 +18540,10 @@
         <v>45</v>
       </c>
       <c r="C152">
-        <v>51243858.126922198</v>
+        <v>42307631.697418198</v>
       </c>
       <c r="D152">
-        <v>39619366.404056698</v>
+        <v>88972240.531225696</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -18548,22 +18552,22 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>90863224.530978903</v>
+        <v>131279872.228644</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>0.52297590834563701</v>
+        <v>0.57280682559705498</v>
       </c>
       <c r="J152">
-        <v>175988672.867452</v>
+        <v>222495752.36536801</v>
       </c>
       <c r="K152">
-        <v>0.98723773210221999</v>
+        <v>1.03007355239805</v>
       </c>
       <c r="L152">
-        <v>173742658.277343</v>
+        <v>229186990.03247201</v>
       </c>
       <c r="M152">
         <v>2019</v>
@@ -18580,10 +18584,10 @@
         <v>46</v>
       </c>
       <c r="C153">
-        <v>138210644.27364099</v>
+        <v>81685285.424133599</v>
       </c>
       <c r="D153">
-        <v>65701755.444525898</v>
+        <v>144804875.429133</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -18592,22 +18596,22 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>203912399.71816599</v>
+        <v>226490160.85326701</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>1.3850022272373499</v>
+        <v>1.2414364345567299</v>
       </c>
       <c r="J153">
-        <v>175088599.53774899</v>
+        <v>214850557.71369901</v>
       </c>
       <c r="K153">
-        <v>0.84088246236161901</v>
+        <v>0.849157730430529</v>
       </c>
       <c r="L153">
-        <v>147228932.71075001</v>
+        <v>182442011.96989799</v>
       </c>
       <c r="M153">
         <v>2019</v>
@@ -18624,10 +18628,10 @@
         <v>47</v>
       </c>
       <c r="C154">
-        <v>60690400.311048202</v>
+        <v>32593106.491448201</v>
       </c>
       <c r="D154">
-        <v>41869443.762375899</v>
+        <v>94716599.627401903</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -18636,22 +18640,22 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>102559844.073424</v>
+        <v>127309706.11884999</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154">
-        <v>0.40051575540263201</v>
+        <v>0.406488497800364</v>
       </c>
       <c r="J154">
-        <v>175219764.90567201</v>
+        <v>207242420.60938999</v>
       </c>
       <c r="K154">
-        <v>1.46141867803674</v>
+        <v>1.5112440301530801</v>
       </c>
       <c r="L154">
-        <v>256069437.19435501</v>
+        <v>313193870.94041401</v>
       </c>
       <c r="M154">
         <v>2019</v>
@@ -18668,10 +18672,10 @@
         <v>48</v>
       </c>
       <c r="C155">
-        <v>92557143.397902295</v>
+        <v>41846236.459702402</v>
       </c>
       <c r="D155">
-        <v>71574910.668506205</v>
+        <v>170995035.48780599</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -18680,22 +18684,22 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>164132054.06640899</v>
+        <v>212841271.94750899</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155">
-        <v>0.46607832480376599</v>
+        <v>0.48946767915053901</v>
       </c>
       <c r="J155">
-        <v>179361467.95540601</v>
+        <v>210951677.37325999</v>
       </c>
       <c r="K155">
-        <v>1.9633844569388399</v>
+        <v>2.0613362616495601</v>
       </c>
       <c r="L155">
-        <v>352155518.35737801</v>
+        <v>434842342.02530003</v>
       </c>
       <c r="M155">
         <v>2019</v>
@@ -18712,10 +18716,10 @@
         <v>49</v>
       </c>
       <c r="C156">
-        <v>85596347.647177696</v>
+        <v>76132527.345785707</v>
       </c>
       <c r="D156">
-        <v>155240268.16336101</v>
+        <v>181763667.46951699</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -18724,22 +18728,22 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>240836615.81053901</v>
+        <v>257896194.815303</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>1.6270814552453099</v>
+        <v>1.4019958549220899</v>
       </c>
       <c r="J156">
-        <v>202325191.71518701</v>
+        <v>232864109.17673099</v>
       </c>
       <c r="K156">
-        <v>0.73158241894279497</v>
+        <v>0.789942805069756</v>
       </c>
       <c r="L156">
-        <v>148017553.16806099</v>
+        <v>183949327.60313699</v>
       </c>
       <c r="M156">
         <v>2019</v>
@@ -18756,10 +18760,10 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>120496442.886944</v>
+        <v>61260046.667464502</v>
       </c>
       <c r="D157">
-        <v>47174277.6618542</v>
+        <v>124568432.297894</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -18768,22 +18772,22 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>167670720.54879799</v>
+        <v>185828478.965359</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157">
-        <v>0.44405596333277803</v>
+        <v>0.41693440034476897</v>
       </c>
       <c r="J157">
-        <v>223612876.45517901</v>
+        <v>253218714.579236</v>
       </c>
       <c r="K157">
-        <v>1.68858417861524</v>
+        <v>1.76014620261368</v>
       </c>
       <c r="L157">
-        <v>377589165.31685901</v>
+        <v>445701958.89735699</v>
       </c>
       <c r="M157">
         <v>2019</v>
@@ -18800,10 +18804,10 @@
         <v>51</v>
       </c>
       <c r="C158">
-        <v>62565767.492323197</v>
+        <v>58285801.995823197</v>
       </c>
       <c r="D158">
-        <v>52258163.712792501</v>
+        <v>79604312.140510499</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -18812,22 +18816,22 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>114823931.205116</v>
+        <v>137890114.136334</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>0.42045046570769401</v>
+        <v>0.401908192853423</v>
       </c>
       <c r="J158">
-        <v>223027144.27878001</v>
+        <v>251627684.05477601</v>
       </c>
       <c r="K158">
-        <v>1.2245029908603</v>
+        <v>1.3634771096565801</v>
       </c>
       <c r="L158">
-        <v>273097405.21239901</v>
+        <v>343088587.36458403</v>
       </c>
       <c r="M158">
         <v>2019</v>
@@ -18844,10 +18848,10 @@
         <v>52</v>
       </c>
       <c r="C159">
-        <v>478886808.24196202</v>
+        <v>453859653.61150199</v>
       </c>
       <c r="D159">
-        <v>119945701.90656</v>
+        <v>239843674.00396001</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -18856,22 +18860,22 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>598832510.14852202</v>
+        <v>693703327.61546195</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>4.4140236706371798</v>
+        <v>4.8532164276471104</v>
       </c>
       <c r="J159">
-        <v>225227013.77608401</v>
+        <v>253764946.924189</v>
       </c>
       <c r="K159">
-        <v>0.60235182897010597</v>
+        <v>0.56326463798859505</v>
       </c>
       <c r="L159">
-        <v>135665903.681499</v>
+        <v>142936820.96344799</v>
       </c>
       <c r="M159">
         <v>2019</v>
@@ -18888,10 +18892,10 @@
         <v>53</v>
       </c>
       <c r="C160">
-        <v>61256417.182966501</v>
+        <v>48573011.309476502</v>
       </c>
       <c r="D160">
-        <v>23380396.075908002</v>
+        <v>50376105.318608001</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -18900,22 +18904,22 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>84636813.258874506</v>
+        <v>98949116.628084496</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160">
-        <v>0.30636363275177497</v>
+        <v>0.30973196588343499</v>
       </c>
       <c r="J160">
-        <v>226330740.92201</v>
+        <v>255238112.279668</v>
       </c>
       <c r="K160">
-        <v>1.22061456317677</v>
+        <v>1.2516426932048099</v>
       </c>
       <c r="L160">
-        <v>276262598.46399498</v>
+        <v>319466918.26223499</v>
       </c>
       <c r="M160">
         <v>2020</v>
@@ -18932,10 +18936,10 @@
         <v>54</v>
       </c>
       <c r="C161">
-        <v>79176722.4405182</v>
+        <v>42083380.012318201</v>
       </c>
       <c r="D161">
-        <v>30778855.145477999</v>
+        <v>87461815.053877994</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -18944,16 +18948,16 @@
         <v>0</v>
       </c>
       <c r="G161">
-        <v>109955577.585996</v>
+        <v>129545195.06619599</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>0.44106704730016</v>
+        <v>0.40990656254282998</v>
       </c>
       <c r="L161">
-        <v>249294474.069309</v>
+        <v>316035913.80086899</v>
       </c>
       <c r="M161">
         <v>2020</v>
@@ -18970,28 +18974,28 @@
         <v>55</v>
       </c>
       <c r="C162">
-        <v>604681811.95287395</v>
+        <v>589386013.530563</v>
       </c>
       <c r="D162">
-        <v>66381925.9819251</v>
+        <v>92258883.640236095</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>3812410.1519999998</v>
       </c>
       <c r="F162">
-        <v>517331.48849999998</v>
+        <v>1972416.7194999999</v>
       </c>
       <c r="G162">
-        <v>671063737.93479896</v>
+        <v>681644897.17079902</v>
       </c>
       <c r="H162">
-        <v>517331.48849999998</v>
+        <v>5784826.8715000004</v>
       </c>
       <c r="I162">
-        <v>1.06973557925282</v>
+        <v>0.986802227265134</v>
       </c>
       <c r="L162">
-        <v>627317395.95266902</v>
+        <v>690761409.26428497</v>
       </c>
       <c r="M162">
         <v>2020</v>
@@ -19008,28 +19012,28 @@
         <v>56</v>
       </c>
       <c r="C163">
-        <v>113790378.062006</v>
+        <v>109569982.268538</v>
       </c>
       <c r="D163">
-        <v>24835769.275226999</v>
+        <v>50519257.718194999</v>
       </c>
       <c r="E163">
-        <v>57940703.210000001</v>
+        <v>3961812.0260000001</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>69954124.995000005</v>
       </c>
       <c r="G163">
-        <v>138626147.33723301</v>
+        <v>160089239.98673299</v>
       </c>
       <c r="H163">
-        <v>57940703.210000001</v>
+        <v>73915937.020999998</v>
       </c>
       <c r="I163">
-        <v>0.50264996998289702</v>
+        <v>0.509304931436526</v>
       </c>
       <c r="L163">
-        <v>275790620.94035298</v>
+        <v>314328862.937163</v>
       </c>
       <c r="M163">
         <v>2020</v>
@@ -19046,28 +19050,28 @@
         <v>57</v>
       </c>
       <c r="C164">
-        <v>36213003.371748298</v>
+        <v>33870463.102589302</v>
       </c>
       <c r="D164">
-        <v>31474531.412238002</v>
+        <v>49538675.375597</v>
       </c>
       <c r="E164">
-        <v>13723756.449999999</v>
+        <v>3935382.3870000001</v>
       </c>
       <c r="F164">
-        <v>1120500</v>
+        <v>26164561.064440001</v>
       </c>
       <c r="G164">
-        <v>67687534.7839863</v>
+        <v>83409138.478186294</v>
       </c>
       <c r="H164">
-        <v>14844256.449999999</v>
+        <v>30099943.451439999</v>
       </c>
       <c r="I164">
-        <v>0.52297590834563701</v>
+        <v>0.57280682559705498</v>
       </c>
       <c r="L164">
-        <v>129427634.626816</v>
+        <v>145614777.532105</v>
       </c>
       <c r="M164">
         <v>2020</v>
@@ -19084,28 +19088,28 @@
         <v>58</v>
       </c>
       <c r="C165">
-        <v>222217248.56691301</v>
+        <v>213223573.100925</v>
       </c>
       <c r="D165">
-        <v>57667708.833538502</v>
+        <v>112431630.368727</v>
       </c>
       <c r="E165">
-        <v>10832489.466</v>
+        <v>19287441.149</v>
       </c>
       <c r="F165">
-        <v>5105693.7699999996</v>
+        <v>20174767.995000001</v>
       </c>
       <c r="G165">
-        <v>279884957.40045202</v>
+        <v>325655203.469652</v>
       </c>
       <c r="H165">
-        <v>15938183.236</v>
+        <v>39462209.144000001</v>
       </c>
       <c r="I165">
-        <v>1.3850022272373499</v>
+        <v>1.2414364345567299</v>
       </c>
       <c r="L165">
-        <v>202082676.76127499</v>
+        <v>262321287.183689</v>
       </c>
       <c r="M165">
         <v>2020</v>
@@ -19122,28 +19126,28 @@
         <v>88</v>
       </c>
       <c r="C166">
-        <v>22858646.893378299</v>
+        <v>22920477.203878298</v>
       </c>
       <c r="D166">
-        <v>30218091</v>
+        <v>40580154.830080003</v>
       </c>
       <c r="E166">
         <v>35011</v>
       </c>
       <c r="F166">
-        <v>9278543.3890000004</v>
+        <v>9879455.2135000005</v>
       </c>
       <c r="G166">
-        <v>53076737.893378302</v>
+        <v>63500632.033958301</v>
       </c>
       <c r="H166">
-        <v>9313554.3890000004</v>
+        <v>9914466.2135000005</v>
       </c>
       <c r="I166">
-        <v>0.40051575540263201</v>
+        <v>0.406488497800364</v>
       </c>
       <c r="L166">
-        <v>132520973.71305899</v>
+        <v>156217537.21834701</v>
       </c>
       <c r="M166">
         <v>2020</v>
